--- a/form_reporting_templates/Form-3CE.xlsx
+++ b/form_reporting_templates/Form-3CE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\dev\git\BitBucket workspaces\IOTC-ws\Data dissemination\iotc-reference-forms\form_reporting_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9555956-E7BE-444B-99A0-C3FE45E3CDD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12FEA398-AD67-401F-9AE6-EB9044BAA25A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="JaUivJj1XpzVIsMUuIWG4pvRwNkhjECqAfRNMoS0pEzY8qCMrWJoKRkwK5J/dPq5W+eH0fv+0nU0ZPhh5rEo8w==" workbookSaltValue="WSrsrEWzygKOJ9WtcOLB6A==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
@@ -111,12 +111,6 @@
     <t>Coverage value</t>
   </si>
   <si>
-    <t>IOTC form 3-CE | metadata</t>
-  </si>
-  <si>
-    <t>IOTC form 3-CE | data</t>
-  </si>
-  <si>
     <t>Grid</t>
   </si>
   <si>
@@ -129,9 +123,6 @@
     <t>Effort values</t>
   </si>
   <si>
-    <t>3-CE</t>
-  </si>
-  <si>
     <t>Type of data</t>
   </si>
   <si>
@@ -154,6 +145,15 @@
   </si>
   <si>
     <t>1.0.0</t>
+  </si>
+  <si>
+    <t>IOTC Form 3CE | data</t>
+  </si>
+  <si>
+    <t>IOTC Form 3CE | metadata</t>
+  </si>
+  <si>
+    <t>3CE</t>
   </si>
 </sst>
 </file>
@@ -825,6 +825,9 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -875,9 +878,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="28" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1232,24 +1232,24 @@
   <sheetData>
     <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="70"/>
+      <c r="B2" s="69" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="71"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="71"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="73"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="74"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
@@ -1257,14 +1257,14 @@
         <v>20</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="4" t="s">
         <v>19</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H4" s="8"/>
     </row>
@@ -1299,15 +1299,15 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="9"/>
-      <c r="C8" s="67" t="s">
+      <c r="C8" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="67"/>
+      <c r="D8" s="68"/>
       <c r="E8" s="10"/>
-      <c r="F8" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" s="67"/>
+      <c r="F8" s="68" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="68"/>
       <c r="H8" s="11"/>
     </row>
     <row r="9" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1326,12 +1326,12 @@
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="9"/>
       <c r="C10" s="14" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G10" s="22"/>
       <c r="H10" s="11"/>
@@ -1348,7 +1348,7 @@
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="9"/>
       <c r="C12" s="14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D12" s="40"/>
       <c r="E12" s="10"/>
@@ -1412,7 +1412,7 @@
       </c>
       <c r="D18" s="41"/>
       <c r="E18" s="10"/>
-      <c r="F18" s="80" t="s">
+      <c r="F18" s="64" t="s">
         <v>8</v>
       </c>
       <c r="G18" s="41"/>
@@ -1421,7 +1421,7 @@
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="9"/>
       <c r="C19" s="47" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D19" s="41"/>
       <c r="E19" s="10"/>
@@ -1474,16 +1474,16 @@
       <c r="C24" s="12"/>
       <c r="D24" s="15"/>
       <c r="E24" s="10"/>
-      <c r="F24" s="67" t="s">
+      <c r="F24" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="G24" s="67"/>
+      <c r="G24" s="68"/>
       <c r="H24" s="11"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="9"/>
       <c r="C25" s="47" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D25" s="41"/>
       <c r="E25" s="10"/>
@@ -1531,7 +1531,7 @@
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="9"/>
       <c r="C29" s="47" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D29" s="41"/>
       <c r="E29" s="10"/>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="D31" s="42"/>
       <c r="E31" s="10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
@@ -1605,11 +1605,11 @@
     </row>
     <row r="36" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="9"/>
-      <c r="C36" s="64"/>
-      <c r="D36" s="65"/>
-      <c r="E36" s="65"/>
-      <c r="F36" s="65"/>
-      <c r="G36" s="66"/>
+      <c r="C36" s="65"/>
+      <c r="D36" s="66"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="66"/>
+      <c r="G36" s="67"/>
       <c r="H36" s="11"/>
     </row>
     <row r="37" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1626,7 +1626,7 @@
       <c r="D38" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Q8d4JQiguVoR/2jG1vNaDSZiC/vapVzaPiPGDpBCFxMi/A+SoRMkfEGkJDLB5MzBg1dvGMqkAXpp2lY5tT8X7w==" saltValue="B4lRDytsqxYVFsdBWvozzA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="wh+LInjqTG1cPm/t97qK//Jk6HW3b7nHHrTULa2Ze3JOTQAf+bXoaLJCHt/ThMFmBk2cvTu8N+7b+pXYrDl3jQ==" saltValue="btbcGY/YwcMVcexOw7KzFQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="5">
     <mergeCell ref="C36:G36"/>
     <mergeCell ref="F24:G24"/>
@@ -1690,236 +1690,236 @@
       <c r="G1" s="33"/>
     </row>
     <row r="2" spans="2:107" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="69" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="70"/>
+      <c r="V2" s="70"/>
+      <c r="W2" s="70"/>
+      <c r="X2" s="70"/>
+      <c r="Y2" s="70"/>
+      <c r="Z2" s="70"/>
+      <c r="AA2" s="70"/>
+      <c r="AB2" s="70"/>
+      <c r="AC2" s="70"/>
+      <c r="AD2" s="70"/>
+      <c r="AE2" s="70"/>
+      <c r="AF2" s="70"/>
+      <c r="AG2" s="70"/>
+      <c r="AH2" s="70"/>
+      <c r="AI2" s="70"/>
+      <c r="AJ2" s="70"/>
+      <c r="AK2" s="70"/>
+      <c r="AL2" s="70"/>
+      <c r="AM2" s="70"/>
+      <c r="AN2" s="70"/>
+      <c r="AO2" s="70"/>
+      <c r="AP2" s="70"/>
+      <c r="AQ2" s="70"/>
+      <c r="AR2" s="70"/>
+      <c r="AS2" s="70"/>
+      <c r="AT2" s="70"/>
+      <c r="AU2" s="70"/>
+      <c r="AV2" s="70"/>
+      <c r="AW2" s="70"/>
+      <c r="AX2" s="70"/>
+      <c r="AY2" s="70"/>
+      <c r="AZ2" s="70"/>
+      <c r="BA2" s="70"/>
+      <c r="BB2" s="70"/>
+      <c r="BC2" s="70"/>
+      <c r="BD2" s="70"/>
+      <c r="BE2" s="70"/>
+      <c r="BF2" s="70"/>
+      <c r="BG2" s="70"/>
+      <c r="BH2" s="70"/>
+      <c r="BI2" s="70"/>
+      <c r="BJ2" s="70"/>
+      <c r="BK2" s="70"/>
+      <c r="BL2" s="70"/>
+      <c r="BM2" s="70"/>
+      <c r="BN2" s="70"/>
+      <c r="BO2" s="70"/>
+      <c r="BP2" s="70"/>
+      <c r="BQ2" s="70"/>
+      <c r="BR2" s="70"/>
+      <c r="BS2" s="70"/>
+      <c r="BT2" s="70"/>
+      <c r="BU2" s="70"/>
+      <c r="BV2" s="70"/>
+      <c r="BW2" s="70"/>
+      <c r="BX2" s="70"/>
+      <c r="BY2" s="70"/>
+      <c r="BZ2" s="70"/>
+      <c r="CA2" s="70"/>
+      <c r="CB2" s="70"/>
+      <c r="CC2" s="70"/>
+      <c r="CD2" s="70"/>
+      <c r="CE2" s="70"/>
+      <c r="CF2" s="70"/>
+      <c r="CG2" s="70"/>
+      <c r="CH2" s="70"/>
+      <c r="CI2" s="70"/>
+      <c r="CJ2" s="70"/>
+      <c r="CK2" s="70"/>
+      <c r="CL2" s="70"/>
+      <c r="CM2" s="70"/>
+      <c r="CN2" s="70"/>
+      <c r="CO2" s="70"/>
+      <c r="CP2" s="70"/>
+      <c r="CQ2" s="70"/>
+      <c r="CR2" s="70"/>
+      <c r="CS2" s="70"/>
+      <c r="CT2" s="70"/>
+      <c r="CU2" s="70"/>
+      <c r="CV2" s="70"/>
+      <c r="CW2" s="70"/>
+      <c r="CX2" s="70"/>
+      <c r="CY2" s="70"/>
+      <c r="CZ2" s="70"/>
+      <c r="DA2" s="70"/>
+      <c r="DB2" s="70"/>
+      <c r="DC2" s="71"/>
+    </row>
+    <row r="3" spans="2:107" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="72"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="73"/>
+      <c r="T3" s="73"/>
+      <c r="U3" s="73"/>
+      <c r="V3" s="73"/>
+      <c r="W3" s="73"/>
+      <c r="X3" s="73"/>
+      <c r="Y3" s="73"/>
+      <c r="Z3" s="73"/>
+      <c r="AA3" s="73"/>
+      <c r="AB3" s="73"/>
+      <c r="AC3" s="73"/>
+      <c r="AD3" s="73"/>
+      <c r="AE3" s="73"/>
+      <c r="AF3" s="73"/>
+      <c r="AG3" s="73"/>
+      <c r="AH3" s="73"/>
+      <c r="AI3" s="73"/>
+      <c r="AJ3" s="73"/>
+      <c r="AK3" s="73"/>
+      <c r="AL3" s="73"/>
+      <c r="AM3" s="73"/>
+      <c r="AN3" s="73"/>
+      <c r="AO3" s="73"/>
+      <c r="AP3" s="73"/>
+      <c r="AQ3" s="73"/>
+      <c r="AR3" s="73"/>
+      <c r="AS3" s="73"/>
+      <c r="AT3" s="73"/>
+      <c r="AU3" s="73"/>
+      <c r="AV3" s="73"/>
+      <c r="AW3" s="73"/>
+      <c r="AX3" s="73"/>
+      <c r="AY3" s="73"/>
+      <c r="AZ3" s="73"/>
+      <c r="BA3" s="73"/>
+      <c r="BB3" s="73"/>
+      <c r="BC3" s="73"/>
+      <c r="BD3" s="73"/>
+      <c r="BE3" s="73"/>
+      <c r="BF3" s="73"/>
+      <c r="BG3" s="73"/>
+      <c r="BH3" s="73"/>
+      <c r="BI3" s="73"/>
+      <c r="BJ3" s="73"/>
+      <c r="BK3" s="73"/>
+      <c r="BL3" s="73"/>
+      <c r="BM3" s="73"/>
+      <c r="BN3" s="73"/>
+      <c r="BO3" s="73"/>
+      <c r="BP3" s="73"/>
+      <c r="BQ3" s="73"/>
+      <c r="BR3" s="73"/>
+      <c r="BS3" s="73"/>
+      <c r="BT3" s="73"/>
+      <c r="BU3" s="73"/>
+      <c r="BV3" s="73"/>
+      <c r="BW3" s="73"/>
+      <c r="BX3" s="73"/>
+      <c r="BY3" s="73"/>
+      <c r="BZ3" s="73"/>
+      <c r="CA3" s="73"/>
+      <c r="CB3" s="73"/>
+      <c r="CC3" s="73"/>
+      <c r="CD3" s="73"/>
+      <c r="CE3" s="73"/>
+      <c r="CF3" s="73"/>
+      <c r="CG3" s="73"/>
+      <c r="CH3" s="73"/>
+      <c r="CI3" s="73"/>
+      <c r="CJ3" s="73"/>
+      <c r="CK3" s="73"/>
+      <c r="CL3" s="73"/>
+      <c r="CM3" s="73"/>
+      <c r="CN3" s="73"/>
+      <c r="CO3" s="73"/>
+      <c r="CP3" s="73"/>
+      <c r="CQ3" s="73"/>
+      <c r="CR3" s="73"/>
+      <c r="CS3" s="73"/>
+      <c r="CT3" s="73"/>
+      <c r="CU3" s="73"/>
+      <c r="CV3" s="73"/>
+      <c r="CW3" s="73"/>
+      <c r="CX3" s="73"/>
+      <c r="CY3" s="73"/>
+      <c r="CZ3" s="73"/>
+      <c r="DA3" s="73"/>
+      <c r="DB3" s="73"/>
+      <c r="DC3" s="74"/>
+    </row>
+    <row r="4" spans="2:107" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="79"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="76"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="81" t="s">
         <v>25</v>
-      </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="69"/>
-      <c r="N2" s="69"/>
-      <c r="O2" s="69"/>
-      <c r="P2" s="69"/>
-      <c r="Q2" s="69"/>
-      <c r="R2" s="69"/>
-      <c r="S2" s="69"/>
-      <c r="T2" s="69"/>
-      <c r="U2" s="69"/>
-      <c r="V2" s="69"/>
-      <c r="W2" s="69"/>
-      <c r="X2" s="69"/>
-      <c r="Y2" s="69"/>
-      <c r="Z2" s="69"/>
-      <c r="AA2" s="69"/>
-      <c r="AB2" s="69"/>
-      <c r="AC2" s="69"/>
-      <c r="AD2" s="69"/>
-      <c r="AE2" s="69"/>
-      <c r="AF2" s="69"/>
-      <c r="AG2" s="69"/>
-      <c r="AH2" s="69"/>
-      <c r="AI2" s="69"/>
-      <c r="AJ2" s="69"/>
-      <c r="AK2" s="69"/>
-      <c r="AL2" s="69"/>
-      <c r="AM2" s="69"/>
-      <c r="AN2" s="69"/>
-      <c r="AO2" s="69"/>
-      <c r="AP2" s="69"/>
-      <c r="AQ2" s="69"/>
-      <c r="AR2" s="69"/>
-      <c r="AS2" s="69"/>
-      <c r="AT2" s="69"/>
-      <c r="AU2" s="69"/>
-      <c r="AV2" s="69"/>
-      <c r="AW2" s="69"/>
-      <c r="AX2" s="69"/>
-      <c r="AY2" s="69"/>
-      <c r="AZ2" s="69"/>
-      <c r="BA2" s="69"/>
-      <c r="BB2" s="69"/>
-      <c r="BC2" s="69"/>
-      <c r="BD2" s="69"/>
-      <c r="BE2" s="69"/>
-      <c r="BF2" s="69"/>
-      <c r="BG2" s="69"/>
-      <c r="BH2" s="69"/>
-      <c r="BI2" s="69"/>
-      <c r="BJ2" s="69"/>
-      <c r="BK2" s="69"/>
-      <c r="BL2" s="69"/>
-      <c r="BM2" s="69"/>
-      <c r="BN2" s="69"/>
-      <c r="BO2" s="69"/>
-      <c r="BP2" s="69"/>
-      <c r="BQ2" s="69"/>
-      <c r="BR2" s="69"/>
-      <c r="BS2" s="69"/>
-      <c r="BT2" s="69"/>
-      <c r="BU2" s="69"/>
-      <c r="BV2" s="69"/>
-      <c r="BW2" s="69"/>
-      <c r="BX2" s="69"/>
-      <c r="BY2" s="69"/>
-      <c r="BZ2" s="69"/>
-      <c r="CA2" s="69"/>
-      <c r="CB2" s="69"/>
-      <c r="CC2" s="69"/>
-      <c r="CD2" s="69"/>
-      <c r="CE2" s="69"/>
-      <c r="CF2" s="69"/>
-      <c r="CG2" s="69"/>
-      <c r="CH2" s="69"/>
-      <c r="CI2" s="69"/>
-      <c r="CJ2" s="69"/>
-      <c r="CK2" s="69"/>
-      <c r="CL2" s="69"/>
-      <c r="CM2" s="69"/>
-      <c r="CN2" s="69"/>
-      <c r="CO2" s="69"/>
-      <c r="CP2" s="69"/>
-      <c r="CQ2" s="69"/>
-      <c r="CR2" s="69"/>
-      <c r="CS2" s="69"/>
-      <c r="CT2" s="69"/>
-      <c r="CU2" s="69"/>
-      <c r="CV2" s="69"/>
-      <c r="CW2" s="69"/>
-      <c r="CX2" s="69"/>
-      <c r="CY2" s="69"/>
-      <c r="CZ2" s="69"/>
-      <c r="DA2" s="69"/>
-      <c r="DB2" s="69"/>
-      <c r="DC2" s="70"/>
-    </row>
-    <row r="3" spans="2:107" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="71"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="72"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="72"/>
-      <c r="O3" s="72"/>
-      <c r="P3" s="72"/>
-      <c r="Q3" s="72"/>
-      <c r="R3" s="72"/>
-      <c r="S3" s="72"/>
-      <c r="T3" s="72"/>
-      <c r="U3" s="72"/>
-      <c r="V3" s="72"/>
-      <c r="W3" s="72"/>
-      <c r="X3" s="72"/>
-      <c r="Y3" s="72"/>
-      <c r="Z3" s="72"/>
-      <c r="AA3" s="72"/>
-      <c r="AB3" s="72"/>
-      <c r="AC3" s="72"/>
-      <c r="AD3" s="72"/>
-      <c r="AE3" s="72"/>
-      <c r="AF3" s="72"/>
-      <c r="AG3" s="72"/>
-      <c r="AH3" s="72"/>
-      <c r="AI3" s="72"/>
-      <c r="AJ3" s="72"/>
-      <c r="AK3" s="72"/>
-      <c r="AL3" s="72"/>
-      <c r="AM3" s="72"/>
-      <c r="AN3" s="72"/>
-      <c r="AO3" s="72"/>
-      <c r="AP3" s="72"/>
-      <c r="AQ3" s="72"/>
-      <c r="AR3" s="72"/>
-      <c r="AS3" s="72"/>
-      <c r="AT3" s="72"/>
-      <c r="AU3" s="72"/>
-      <c r="AV3" s="72"/>
-      <c r="AW3" s="72"/>
-      <c r="AX3" s="72"/>
-      <c r="AY3" s="72"/>
-      <c r="AZ3" s="72"/>
-      <c r="BA3" s="72"/>
-      <c r="BB3" s="72"/>
-      <c r="BC3" s="72"/>
-      <c r="BD3" s="72"/>
-      <c r="BE3" s="72"/>
-      <c r="BF3" s="72"/>
-      <c r="BG3" s="72"/>
-      <c r="BH3" s="72"/>
-      <c r="BI3" s="72"/>
-      <c r="BJ3" s="72"/>
-      <c r="BK3" s="72"/>
-      <c r="BL3" s="72"/>
-      <c r="BM3" s="72"/>
-      <c r="BN3" s="72"/>
-      <c r="BO3" s="72"/>
-      <c r="BP3" s="72"/>
-      <c r="BQ3" s="72"/>
-      <c r="BR3" s="72"/>
-      <c r="BS3" s="72"/>
-      <c r="BT3" s="72"/>
-      <c r="BU3" s="72"/>
-      <c r="BV3" s="72"/>
-      <c r="BW3" s="72"/>
-      <c r="BX3" s="72"/>
-      <c r="BY3" s="72"/>
-      <c r="BZ3" s="72"/>
-      <c r="CA3" s="72"/>
-      <c r="CB3" s="72"/>
-      <c r="CC3" s="72"/>
-      <c r="CD3" s="72"/>
-      <c r="CE3" s="72"/>
-      <c r="CF3" s="72"/>
-      <c r="CG3" s="72"/>
-      <c r="CH3" s="72"/>
-      <c r="CI3" s="72"/>
-      <c r="CJ3" s="72"/>
-      <c r="CK3" s="72"/>
-      <c r="CL3" s="72"/>
-      <c r="CM3" s="72"/>
-      <c r="CN3" s="72"/>
-      <c r="CO3" s="72"/>
-      <c r="CP3" s="72"/>
-      <c r="CQ3" s="72"/>
-      <c r="CR3" s="72"/>
-      <c r="CS3" s="72"/>
-      <c r="CT3" s="72"/>
-      <c r="CU3" s="72"/>
-      <c r="CV3" s="72"/>
-      <c r="CW3" s="72"/>
-      <c r="CX3" s="72"/>
-      <c r="CY3" s="72"/>
-      <c r="CZ3" s="72"/>
-      <c r="DA3" s="72"/>
-      <c r="DB3" s="72"/>
-      <c r="DC3" s="73"/>
-    </row>
-    <row r="4" spans="2:107" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="77" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="74" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="75"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="81" t="s">
-        <v>27</v>
       </c>
       <c r="I4" s="82"/>
       <c r="J4" s="82"/>
@@ -2026,7 +2026,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="51" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D5" s="52" t="s">
         <v>11</v>
@@ -2642,7 +2642,7 @@
       <c r="G55" s="39"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="GLF/EQAwGoMGeE3o+GmWpvAIm4zDU6U0BQtu9pb+Voga2ig8rI9FaCpubj+0BXLHMHlbwhQODJQkM3OogkOddQ==" saltValue="DyBC3YeVpF+WDFQSDwSpPg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="xP/vU14SDPFSd5xl+n7X3arHM/pR8+OPREMT7TOexFwou0hgBtfvnNk51JZ9q46IALErKTYgvSdO2oRARzRvuw==" saltValue="SfsHgQE4R2XHMhOnBKlnTQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="4">
     <mergeCell ref="B2:DC3"/>
     <mergeCell ref="E4:G4"/>

--- a/form_reporting_templates/Form-3CE.xlsx
+++ b/form_reporting_templates/Form-3CE.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\dev\git\BitBucket workspaces\IOTC-ws\Data dissemination\iotc-reference-forms\form_reporting_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\echassot\Desktop\iotc-reference-forms\form_reporting_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12FEA398-AD67-401F-9AE6-EB9044BAA25A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AB32962-77F0-4EA5-9BCC-69B91C36451F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="JaUivJj1XpzVIsMUuIWG4pvRwNkhjECqAfRNMoS0pEzY8qCMrWJoKRkwK5J/dPq5W+eH0fv+0nU0ZPhh5rEo8w==" workbookSaltValue="WSrsrEWzygKOJ9WtcOLB6A==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
@@ -51,9 +51,6 @@
     <t>General information</t>
   </si>
   <si>
-    <t>Flag country</t>
-  </si>
-  <si>
     <t>Reporting year</t>
   </si>
   <si>
@@ -154,6 +151,9 @@
   </si>
   <si>
     <t>3CE</t>
+  </si>
+  <si>
+    <t>Flag state</t>
   </si>
 </sst>
 </file>
@@ -1233,7 +1233,7 @@
     <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="69" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" s="70"/>
       <c r="D2" s="70"/>
@@ -1254,17 +1254,17 @@
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
       <c r="C4" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H4" s="8"/>
     </row>
@@ -1280,7 +1280,7 @@
     <row r="6" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B6" s="9"/>
       <c r="C6" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
@@ -1305,7 +1305,7 @@
       <c r="D8" s="68"/>
       <c r="E8" s="10"/>
       <c r="F8" s="68" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G8" s="68"/>
       <c r="H8" s="11"/>
@@ -1326,12 +1326,12 @@
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="9"/>
       <c r="C10" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G10" s="22"/>
       <c r="H10" s="11"/>
@@ -1348,7 +1348,7 @@
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="9"/>
       <c r="C12" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="40"/>
       <c r="E12" s="10"/>
@@ -1359,7 +1359,7 @@
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="9"/>
       <c r="C13" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D13" s="40"/>
       <c r="E13" s="10"/>
@@ -1408,12 +1408,12 @@
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="9"/>
       <c r="C18" s="14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" s="41"/>
       <c r="E18" s="10"/>
       <c r="F18" s="64" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G18" s="41"/>
       <c r="H18" s="11"/>
@@ -1421,7 +1421,7 @@
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="9"/>
       <c r="C19" s="47" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D19" s="41"/>
       <c r="E19" s="10"/>
@@ -1432,7 +1432,7 @@
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="9"/>
       <c r="C20" s="47" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="D20" s="41"/>
       <c r="E20" s="10"/>
@@ -1461,7 +1461,7 @@
     <row r="23" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B23" s="9"/>
       <c r="C23" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D23" s="32"/>
       <c r="E23" s="10"/>
@@ -1475,7 +1475,7 @@
       <c r="D24" s="15"/>
       <c r="E24" s="10"/>
       <c r="F24" s="68" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G24" s="68"/>
       <c r="H24" s="11"/>
@@ -1483,12 +1483,12 @@
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="9"/>
       <c r="C25" s="47" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D25" s="41"/>
       <c r="E25" s="10"/>
       <c r="F25" s="47" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G25" s="41"/>
       <c r="H25" s="11"/>
@@ -1499,7 +1499,7 @@
       <c r="D26" s="15"/>
       <c r="E26" s="10"/>
       <c r="F26" s="43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G26" s="41"/>
       <c r="H26" s="11"/>
@@ -1507,12 +1507,12 @@
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="9"/>
       <c r="C27" s="47" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D27" s="41"/>
       <c r="E27" s="10"/>
       <c r="F27" s="44" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G27" s="41"/>
       <c r="H27" s="11"/>
@@ -1520,7 +1520,7 @@
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="9"/>
       <c r="C28" s="47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D28" s="41"/>
       <c r="E28" s="10"/>
@@ -1531,12 +1531,12 @@
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="9"/>
       <c r="C29" s="47" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D29" s="41"/>
       <c r="E29" s="10"/>
       <c r="F29" s="48" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G29" s="41"/>
       <c r="H29" s="11"/>
@@ -1544,7 +1544,7 @@
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="9"/>
       <c r="C30" s="47" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D30" s="41"/>
       <c r="E30" s="10"/>
@@ -1555,11 +1555,11 @@
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="9"/>
       <c r="C31" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D31" s="42"/>
       <c r="E31" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
@@ -1586,7 +1586,7 @@
     <row r="34" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B34" s="9"/>
       <c r="C34" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D34" s="15"/>
       <c r="E34" s="10"/>
@@ -1626,7 +1626,7 @@
       <c r="D38" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="wh+LInjqTG1cPm/t97qK//Jk6HW3b7nHHrTULa2Ze3JOTQAf+bXoaLJCHt/ThMFmBk2cvTu8N+7b+pXYrDl3jQ==" saltValue="btbcGY/YwcMVcexOw7KzFQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="WuJPL+5jCxxosUtbIOt+XUqWWc0RtN/MZv09sjPOXmyxWuNM/+pm/jrTrA87tZaLxZfSuZoXyq4b44vBJHDsSA==" saltValue="+GoAlWD26+k6F1fxq+ECqg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="5">
     <mergeCell ref="C36:G36"/>
     <mergeCell ref="F24:G24"/>
@@ -1641,7 +1641,7 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="C19" r:id="rId1" location="entities" xr:uid="{F1D811EA-5FE5-4CDE-ACBC-6C1307C55A81}"/>
-    <hyperlink ref="C20" r:id="rId2" location="countries" xr:uid="{6EA88155-3516-41F0-8948-1ABD8397C716}"/>
+    <hyperlink ref="C20" r:id="rId2" location="countries" display="Flag country" xr:uid="{6EA88155-3516-41F0-8948-1ABD8397C716}"/>
     <hyperlink ref="C25" r:id="rId3" location="types" xr:uid="{622B0C49-8893-494A-9BCD-E4B332B3D3A5}"/>
     <hyperlink ref="C28" r:id="rId4" location="processingsCE" xr:uid="{B5020CB7-2D60-4DAF-BC95-0497980829AA}"/>
     <hyperlink ref="C27" r:id="rId5" location="sourcesCE" xr:uid="{1A836EF2-15CA-4640-90B8-B74BF168D813}"/>
@@ -1691,7 +1691,7 @@
     </row>
     <row r="2" spans="2:107" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="69" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" s="70"/>
       <c r="D2" s="70"/>
@@ -1909,17 +1909,17 @@
     </row>
     <row r="4" spans="2:107" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="78" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" s="79"/>
       <c r="D4" s="80"/>
       <c r="E4" s="75" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F4" s="76"/>
       <c r="G4" s="77"/>
       <c r="H4" s="81" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I4" s="82"/>
       <c r="J4" s="82"/>
@@ -2023,22 +2023,22 @@
     </row>
     <row r="5" spans="2:107" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="52" t="s">
-        <v>11</v>
-      </c>
       <c r="E5" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="53" t="s">
-        <v>18</v>
-      </c>
       <c r="G5" s="54" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H5" s="46"/>
       <c r="I5" s="24"/>

--- a/form_reporting_templates/Form-3CE.xlsx
+++ b/form_reporting_templates/Form-3CE.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\echassot\Desktop\iotc-reference-forms\form_reporting_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\dev\git\BitBucket workspaces\IOTC-ws\Data dissemination\iotc-reference-forms\form_reporting_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AB32962-77F0-4EA5-9BCC-69B91C36451F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EEEC1BC-9F6D-4307-90DD-05957BCE1431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="JaUivJj1XpzVIsMUuIWG4pvRwNkhjECqAfRNMoS0pEzY8qCMrWJoKRkwK5J/dPq5W+eH0fv+0nU0ZPhh5rEo8w==" workbookSaltValue="WSrsrEWzygKOJ9WtcOLB6A==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
@@ -879,15 +879,15 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="28" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="26" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2642,7 +2642,7 @@
       <c r="G55" s="39"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="xP/vU14SDPFSd5xl+n7X3arHM/pR8+OPREMT7TOexFwou0hgBtfvnNk51JZ9q46IALErKTYgvSdO2oRARzRvuw==" saltValue="SfsHgQE4R2XHMhOnBKlnTQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="qu+HEgqrWIbEREl7p31mJI9r2dZa9xw/0VESHmIecIjlmCLVkKDarlXaDjhqLWi0PSX5uGEykLgI+0l9oJNcKA==" saltValue="ciFOWMQUNbWZnhDf/zBVZw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="4">
     <mergeCell ref="B2:DC3"/>
     <mergeCell ref="E4:G4"/>

--- a/form_reporting_templates/Form-3CE.xlsx
+++ b/form_reporting_templates/Form-3CE.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\dev\git\BitBucket workspaces\IOTC-ws\Data dissemination\iotc-reference-forms\form_reporting_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B39D4EA4-EAC7-4854-A9E4-B5AA36C1EA1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7572C7EC-FDDF-4DD2-A940-E6C11B5AA52F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="D/L7RJXD1bM7VSukp9nBPXamnS2mKwuV7VHnNS9bopG+/gy69KSPIxEDp2efAHIwM2oGVTU5uyDQpmk0iVlvLw==" workbookSaltValue="ZXtEfnD7/zBb2FnSisyo4w==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
+    <workbookView xWindow="28680" yWindow="1140" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -1001,10 +1001,6 @@
     <xf numFmtId="2" fontId="1" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1124,6 +1120,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1473,24 +1473,24 @@
   <sheetData>
     <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="96" t="s">
+      <c r="B2" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="98"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="97"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="99"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="101"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="100"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
@@ -1540,15 +1540,15 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="9"/>
-      <c r="C8" s="95" t="s">
+      <c r="C8" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="95"/>
+      <c r="D8" s="94"/>
       <c r="E8" s="10"/>
-      <c r="F8" s="95" t="s">
+      <c r="F8" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="95"/>
+      <c r="G8" s="94"/>
       <c r="H8" s="11"/>
     </row>
     <row r="9" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1719,11 +1719,11 @@
     </row>
     <row r="25" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="9"/>
-      <c r="C25" s="92"/>
-      <c r="D25" s="93"/>
-      <c r="E25" s="93"/>
-      <c r="F25" s="93"/>
-      <c r="G25" s="94"/>
+      <c r="C25" s="91"/>
+      <c r="D25" s="92"/>
+      <c r="E25" s="92"/>
+      <c r="F25" s="92"/>
+      <c r="G25" s="93"/>
       <c r="H25" s="11"/>
     </row>
     <row r="26" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1778,19 +1778,19 @@
     <col min="2" max="2" width="11.42578125" style="60" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" style="63" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" style="63" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="82" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="81" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" style="60" customWidth="1"/>
     <col min="7" max="8" width="11.42578125" style="63" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" style="82" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="81" customWidth="1"/>
     <col min="10" max="10" width="11.42578125" style="60" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" style="85" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="84" customWidth="1"/>
     <col min="12" max="12" width="11.42578125" style="60" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" style="86" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" style="85" customWidth="1"/>
     <col min="14" max="14" width="11.42578125" style="63" customWidth="1"/>
-    <col min="15" max="15" width="10.7109375" style="86" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" style="85" customWidth="1"/>
     <col min="16" max="16" width="11.42578125" style="63" customWidth="1"/>
-    <col min="17" max="17" width="10.7109375" style="87" customWidth="1"/>
-    <col min="18" max="18" width="10" style="90" customWidth="1"/>
+    <col min="17" max="17" width="10.7109375" style="86" customWidth="1"/>
+    <col min="18" max="18" width="10" style="89" customWidth="1"/>
     <col min="19" max="19" width="9.140625" style="51"/>
     <col min="20" max="117" width="9.140625" style="49"/>
     <col min="118" max="118" width="9.140625" style="50"/>
@@ -1807,24 +1807,24 @@
       <c r="Q1" s="41"/>
     </row>
     <row r="2" spans="2:118" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="96" t="s">
+      <c r="B2" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
-      <c r="N2" s="97"/>
-      <c r="O2" s="97"/>
-      <c r="P2" s="97"/>
-      <c r="Q2" s="97"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="96"/>
+      <c r="N2" s="96"/>
+      <c r="O2" s="96"/>
+      <c r="P2" s="96"/>
+      <c r="Q2" s="96"/>
       <c r="R2" s="38"/>
       <c r="S2" s="38"/>
       <c r="T2" s="38"/>
@@ -1928,152 +1928,152 @@
       <c r="DN2" s="40"/>
     </row>
     <row r="3" spans="2:118" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="99"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="100"/>
-      <c r="L3" s="100"/>
-      <c r="M3" s="100"/>
-      <c r="N3" s="100"/>
-      <c r="O3" s="100"/>
-      <c r="P3" s="100"/>
-      <c r="Q3" s="100"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="99"/>
+      <c r="K3" s="99"/>
+      <c r="L3" s="99"/>
+      <c r="M3" s="99"/>
+      <c r="N3" s="99"/>
+      <c r="O3" s="99"/>
+      <c r="P3" s="99"/>
+      <c r="Q3" s="99"/>
       <c r="R3" s="39"/>
-      <c r="S3" s="102" t="s">
+      <c r="S3" s="101" t="s">
         <v>25</v>
       </c>
-      <c r="T3" s="103"/>
-      <c r="U3" s="103"/>
-      <c r="V3" s="103"/>
-      <c r="W3" s="103"/>
-      <c r="X3" s="103"/>
-      <c r="Y3" s="103"/>
-      <c r="Z3" s="103"/>
-      <c r="AA3" s="103"/>
-      <c r="AB3" s="103"/>
-      <c r="AC3" s="103"/>
-      <c r="AD3" s="103"/>
-      <c r="AE3" s="103"/>
-      <c r="AF3" s="103"/>
-      <c r="AG3" s="103"/>
-      <c r="AH3" s="103"/>
-      <c r="AI3" s="103"/>
-      <c r="AJ3" s="103"/>
-      <c r="AK3" s="103"/>
-      <c r="AL3" s="103"/>
-      <c r="AM3" s="103"/>
-      <c r="AN3" s="103"/>
-      <c r="AO3" s="103"/>
-      <c r="AP3" s="103"/>
-      <c r="AQ3" s="103"/>
-      <c r="AR3" s="103"/>
-      <c r="AS3" s="103"/>
-      <c r="AT3" s="103"/>
-      <c r="AU3" s="103"/>
-      <c r="AV3" s="103"/>
-      <c r="AW3" s="103"/>
-      <c r="AX3" s="103"/>
-      <c r="AY3" s="103"/>
-      <c r="AZ3" s="103"/>
-      <c r="BA3" s="103"/>
-      <c r="BB3" s="103"/>
-      <c r="BC3" s="103"/>
-      <c r="BD3" s="103"/>
-      <c r="BE3" s="103"/>
-      <c r="BF3" s="103"/>
-      <c r="BG3" s="103"/>
-      <c r="BH3" s="103"/>
-      <c r="BI3" s="103"/>
-      <c r="BJ3" s="103"/>
-      <c r="BK3" s="103"/>
-      <c r="BL3" s="103"/>
-      <c r="BM3" s="103"/>
-      <c r="BN3" s="103"/>
-      <c r="BO3" s="103"/>
-      <c r="BP3" s="103"/>
-      <c r="BQ3" s="103"/>
-      <c r="BR3" s="103"/>
-      <c r="BS3" s="103"/>
-      <c r="BT3" s="103"/>
-      <c r="BU3" s="103"/>
-      <c r="BV3" s="103"/>
-      <c r="BW3" s="103"/>
-      <c r="BX3" s="103"/>
-      <c r="BY3" s="103"/>
-      <c r="BZ3" s="103"/>
-      <c r="CA3" s="103"/>
-      <c r="CB3" s="103"/>
-      <c r="CC3" s="103"/>
-      <c r="CD3" s="103"/>
-      <c r="CE3" s="103"/>
-      <c r="CF3" s="103"/>
-      <c r="CG3" s="103"/>
-      <c r="CH3" s="103"/>
-      <c r="CI3" s="103"/>
-      <c r="CJ3" s="103"/>
-      <c r="CK3" s="103"/>
-      <c r="CL3" s="103"/>
-      <c r="CM3" s="103"/>
-      <c r="CN3" s="103"/>
-      <c r="CO3" s="103"/>
-      <c r="CP3" s="103"/>
-      <c r="CQ3" s="103"/>
-      <c r="CR3" s="103"/>
-      <c r="CS3" s="103"/>
-      <c r="CT3" s="103"/>
-      <c r="CU3" s="103"/>
-      <c r="CV3" s="103"/>
-      <c r="CW3" s="103"/>
-      <c r="CX3" s="103"/>
-      <c r="CY3" s="103"/>
-      <c r="CZ3" s="103"/>
-      <c r="DA3" s="103"/>
-      <c r="DB3" s="103"/>
-      <c r="DC3" s="103"/>
-      <c r="DD3" s="103"/>
-      <c r="DE3" s="103"/>
-      <c r="DF3" s="103"/>
-      <c r="DG3" s="103"/>
-      <c r="DH3" s="103"/>
-      <c r="DI3" s="103"/>
-      <c r="DJ3" s="103"/>
-      <c r="DK3" s="103"/>
-      <c r="DL3" s="103"/>
-      <c r="DM3" s="103"/>
-      <c r="DN3" s="104"/>
+      <c r="T3" s="102"/>
+      <c r="U3" s="102"/>
+      <c r="V3" s="102"/>
+      <c r="W3" s="102"/>
+      <c r="X3" s="102"/>
+      <c r="Y3" s="102"/>
+      <c r="Z3" s="102"/>
+      <c r="AA3" s="102"/>
+      <c r="AB3" s="102"/>
+      <c r="AC3" s="102"/>
+      <c r="AD3" s="102"/>
+      <c r="AE3" s="102"/>
+      <c r="AF3" s="102"/>
+      <c r="AG3" s="102"/>
+      <c r="AH3" s="102"/>
+      <c r="AI3" s="102"/>
+      <c r="AJ3" s="102"/>
+      <c r="AK3" s="102"/>
+      <c r="AL3" s="102"/>
+      <c r="AM3" s="102"/>
+      <c r="AN3" s="102"/>
+      <c r="AO3" s="102"/>
+      <c r="AP3" s="102"/>
+      <c r="AQ3" s="102"/>
+      <c r="AR3" s="102"/>
+      <c r="AS3" s="102"/>
+      <c r="AT3" s="102"/>
+      <c r="AU3" s="102"/>
+      <c r="AV3" s="102"/>
+      <c r="AW3" s="102"/>
+      <c r="AX3" s="102"/>
+      <c r="AY3" s="102"/>
+      <c r="AZ3" s="102"/>
+      <c r="BA3" s="102"/>
+      <c r="BB3" s="102"/>
+      <c r="BC3" s="102"/>
+      <c r="BD3" s="102"/>
+      <c r="BE3" s="102"/>
+      <c r="BF3" s="102"/>
+      <c r="BG3" s="102"/>
+      <c r="BH3" s="102"/>
+      <c r="BI3" s="102"/>
+      <c r="BJ3" s="102"/>
+      <c r="BK3" s="102"/>
+      <c r="BL3" s="102"/>
+      <c r="BM3" s="102"/>
+      <c r="BN3" s="102"/>
+      <c r="BO3" s="102"/>
+      <c r="BP3" s="102"/>
+      <c r="BQ3" s="102"/>
+      <c r="BR3" s="102"/>
+      <c r="BS3" s="102"/>
+      <c r="BT3" s="102"/>
+      <c r="BU3" s="102"/>
+      <c r="BV3" s="102"/>
+      <c r="BW3" s="102"/>
+      <c r="BX3" s="102"/>
+      <c r="BY3" s="102"/>
+      <c r="BZ3" s="102"/>
+      <c r="CA3" s="102"/>
+      <c r="CB3" s="102"/>
+      <c r="CC3" s="102"/>
+      <c r="CD3" s="102"/>
+      <c r="CE3" s="102"/>
+      <c r="CF3" s="102"/>
+      <c r="CG3" s="102"/>
+      <c r="CH3" s="102"/>
+      <c r="CI3" s="102"/>
+      <c r="CJ3" s="102"/>
+      <c r="CK3" s="102"/>
+      <c r="CL3" s="102"/>
+      <c r="CM3" s="102"/>
+      <c r="CN3" s="102"/>
+      <c r="CO3" s="102"/>
+      <c r="CP3" s="102"/>
+      <c r="CQ3" s="102"/>
+      <c r="CR3" s="102"/>
+      <c r="CS3" s="102"/>
+      <c r="CT3" s="102"/>
+      <c r="CU3" s="102"/>
+      <c r="CV3" s="102"/>
+      <c r="CW3" s="102"/>
+      <c r="CX3" s="102"/>
+      <c r="CY3" s="102"/>
+      <c r="CZ3" s="102"/>
+      <c r="DA3" s="102"/>
+      <c r="DB3" s="102"/>
+      <c r="DC3" s="102"/>
+      <c r="DD3" s="102"/>
+      <c r="DE3" s="102"/>
+      <c r="DF3" s="102"/>
+      <c r="DG3" s="102"/>
+      <c r="DH3" s="102"/>
+      <c r="DI3" s="102"/>
+      <c r="DJ3" s="102"/>
+      <c r="DK3" s="102"/>
+      <c r="DL3" s="102"/>
+      <c r="DM3" s="102"/>
+      <c r="DN3" s="103"/>
     </row>
     <row r="4" spans="2:118" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="105" t="s">
+      <c r="B4" s="104" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="105" t="s">
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="104" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="106"/>
-      <c r="H4" s="106"/>
-      <c r="I4" s="107"/>
-      <c r="J4" s="105" t="s">
+      <c r="G4" s="105"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="106"/>
+      <c r="J4" s="104" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="107"/>
-      <c r="L4" s="108" t="s">
+      <c r="K4" s="106"/>
+      <c r="L4" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="109"/>
-      <c r="N4" s="109"/>
-      <c r="O4" s="109"/>
-      <c r="P4" s="109"/>
-      <c r="Q4" s="110"/>
-      <c r="R4" s="80" t="s">
+      <c r="M4" s="108"/>
+      <c r="N4" s="108"/>
+      <c r="O4" s="108"/>
+      <c r="P4" s="108"/>
+      <c r="Q4" s="109"/>
+      <c r="R4" s="79" t="s">
         <v>26</v>
       </c>
       <c r="S4" s="25"/>
@@ -2178,25 +2178,25 @@
       <c r="DN4" s="27"/>
     </row>
     <row r="5" spans="2:118" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="76" t="s">
+      <c r="B5" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="77" t="s">
+      <c r="C5" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="78" t="s">
+      <c r="D5" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="75" t="s">
+      <c r="E5" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="74" t="s">
+      <c r="F5" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="79" t="s">
+      <c r="G5" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="79" t="s">
+      <c r="H5" s="78" t="s">
         <v>21</v>
       </c>
       <c r="I5" s="71" t="s">
@@ -2226,7 +2226,7 @@
       <c r="Q5" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="R5" s="81" t="s">
+      <c r="R5" s="80" t="s">
         <v>8</v>
       </c>
       <c r="S5" s="28"/>
@@ -2340,14 +2340,14 @@
       <c r="H6" s="53"/>
       <c r="I6" s="54"/>
       <c r="J6" s="52"/>
-      <c r="K6" s="83"/>
+      <c r="K6" s="82"/>
       <c r="L6" s="58"/>
       <c r="M6" s="55"/>
       <c r="N6" s="61"/>
       <c r="O6" s="55"/>
       <c r="P6" s="61"/>
       <c r="Q6" s="56"/>
-      <c r="R6" s="89"/>
+      <c r="R6" s="88"/>
       <c r="S6" s="46"/>
       <c r="T6" s="31"/>
       <c r="U6" s="31"/>
@@ -2459,14 +2459,14 @@
       <c r="H7" s="34"/>
       <c r="I7" s="35"/>
       <c r="J7" s="33"/>
-      <c r="K7" s="84"/>
+      <c r="K7" s="83"/>
       <c r="L7" s="59"/>
       <c r="M7" s="48"/>
       <c r="N7" s="62"/>
       <c r="O7" s="48"/>
       <c r="P7" s="62"/>
       <c r="Q7" s="42"/>
-      <c r="R7" s="89"/>
+      <c r="R7" s="88"/>
       <c r="S7" s="47"/>
       <c r="T7" s="36"/>
       <c r="U7" s="36"/>
@@ -2578,14 +2578,14 @@
       <c r="H8" s="34"/>
       <c r="I8" s="35"/>
       <c r="J8" s="33"/>
-      <c r="K8" s="84"/>
+      <c r="K8" s="83"/>
       <c r="L8" s="59"/>
       <c r="M8" s="48"/>
       <c r="N8" s="62"/>
       <c r="O8" s="48"/>
       <c r="P8" s="62"/>
       <c r="Q8" s="42"/>
-      <c r="R8" s="89"/>
+      <c r="R8" s="88"/>
       <c r="S8" s="47"/>
       <c r="T8" s="36"/>
       <c r="U8" s="36"/>
@@ -2697,14 +2697,14 @@
       <c r="H9" s="34"/>
       <c r="I9" s="35"/>
       <c r="J9" s="33"/>
-      <c r="K9" s="84"/>
+      <c r="K9" s="83"/>
       <c r="L9" s="59"/>
       <c r="M9" s="48"/>
       <c r="N9" s="62"/>
       <c r="O9" s="48"/>
       <c r="P9" s="62"/>
       <c r="Q9" s="42"/>
-      <c r="R9" s="89"/>
+      <c r="R9" s="88"/>
       <c r="S9" s="47"/>
       <c r="T9" s="36"/>
       <c r="U9" s="36"/>
@@ -2816,14 +2816,14 @@
       <c r="H10" s="34"/>
       <c r="I10" s="35"/>
       <c r="J10" s="33"/>
-      <c r="K10" s="84"/>
+      <c r="K10" s="83"/>
       <c r="L10" s="59"/>
       <c r="M10" s="48"/>
       <c r="N10" s="62"/>
       <c r="O10" s="48"/>
       <c r="P10" s="62"/>
       <c r="Q10" s="42"/>
-      <c r="R10" s="89"/>
+      <c r="R10" s="88"/>
       <c r="S10" s="47"/>
       <c r="T10" s="36"/>
       <c r="U10" s="36"/>
@@ -2935,14 +2935,14 @@
       <c r="H11" s="34"/>
       <c r="I11" s="35"/>
       <c r="J11" s="33"/>
-      <c r="K11" s="84"/>
+      <c r="K11" s="83"/>
       <c r="L11" s="59"/>
       <c r="M11" s="48"/>
       <c r="N11" s="62"/>
       <c r="O11" s="48"/>
       <c r="P11" s="62"/>
       <c r="Q11" s="42"/>
-      <c r="R11" s="89"/>
+      <c r="R11" s="88"/>
       <c r="S11" s="47"/>
       <c r="T11" s="36"/>
       <c r="U11" s="36"/>
@@ -3054,14 +3054,14 @@
       <c r="H12" s="34"/>
       <c r="I12" s="35"/>
       <c r="J12" s="33"/>
-      <c r="K12" s="84"/>
+      <c r="K12" s="83"/>
       <c r="L12" s="59"/>
       <c r="M12" s="48"/>
       <c r="N12" s="62"/>
       <c r="O12" s="48"/>
       <c r="P12" s="62"/>
       <c r="Q12" s="42"/>
-      <c r="R12" s="89"/>
+      <c r="R12" s="88"/>
       <c r="S12" s="47"/>
       <c r="T12" s="36"/>
       <c r="U12" s="36"/>
@@ -3173,14 +3173,14 @@
       <c r="H13" s="34"/>
       <c r="I13" s="35"/>
       <c r="J13" s="33"/>
-      <c r="K13" s="84"/>
+      <c r="K13" s="83"/>
       <c r="L13" s="59"/>
       <c r="M13" s="48"/>
       <c r="N13" s="62"/>
       <c r="O13" s="48"/>
       <c r="P13" s="62"/>
       <c r="Q13" s="42"/>
-      <c r="R13" s="89"/>
+      <c r="R13" s="88"/>
       <c r="S13" s="47"/>
       <c r="T13" s="36"/>
       <c r="U13" s="36"/>
@@ -3292,14 +3292,14 @@
       <c r="H14" s="34"/>
       <c r="I14" s="35"/>
       <c r="J14" s="33"/>
-      <c r="K14" s="84"/>
+      <c r="K14" s="83"/>
       <c r="L14" s="59"/>
       <c r="M14" s="48"/>
       <c r="N14" s="62"/>
       <c r="O14" s="48"/>
       <c r="P14" s="62"/>
       <c r="Q14" s="42"/>
-      <c r="R14" s="89"/>
+      <c r="R14" s="88"/>
       <c r="S14" s="47"/>
       <c r="T14" s="36"/>
       <c r="U14" s="36"/>
@@ -3411,14 +3411,14 @@
       <c r="H15" s="34"/>
       <c r="I15" s="35"/>
       <c r="J15" s="33"/>
-      <c r="K15" s="84"/>
+      <c r="K15" s="83"/>
       <c r="L15" s="59"/>
       <c r="M15" s="48"/>
       <c r="N15" s="62"/>
       <c r="O15" s="48"/>
       <c r="P15" s="62"/>
       <c r="Q15" s="42"/>
-      <c r="R15" s="89"/>
+      <c r="R15" s="88"/>
       <c r="S15" s="47"/>
       <c r="T15" s="36"/>
       <c r="U15" s="36"/>
@@ -3530,14 +3530,14 @@
       <c r="H16" s="34"/>
       <c r="I16" s="35"/>
       <c r="J16" s="33"/>
-      <c r="K16" s="84"/>
+      <c r="K16" s="83"/>
       <c r="L16" s="59"/>
       <c r="M16" s="48"/>
       <c r="N16" s="62"/>
       <c r="O16" s="48"/>
       <c r="P16" s="62"/>
       <c r="Q16" s="42"/>
-      <c r="R16" s="89"/>
+      <c r="R16" s="88"/>
       <c r="S16" s="47"/>
       <c r="T16" s="36"/>
       <c r="U16" s="36"/>
@@ -3649,14 +3649,14 @@
       <c r="H17" s="34"/>
       <c r="I17" s="35"/>
       <c r="J17" s="33"/>
-      <c r="K17" s="84"/>
+      <c r="K17" s="83"/>
       <c r="L17" s="59"/>
       <c r="M17" s="48"/>
       <c r="N17" s="62"/>
       <c r="O17" s="48"/>
       <c r="P17" s="62"/>
       <c r="Q17" s="42"/>
-      <c r="R17" s="89"/>
+      <c r="R17" s="88"/>
       <c r="S17" s="47"/>
       <c r="T17" s="36"/>
       <c r="U17" s="36"/>
@@ -3768,14 +3768,14 @@
       <c r="H18" s="34"/>
       <c r="I18" s="35"/>
       <c r="J18" s="33"/>
-      <c r="K18" s="84"/>
+      <c r="K18" s="83"/>
       <c r="L18" s="59"/>
       <c r="M18" s="48"/>
       <c r="N18" s="62"/>
       <c r="O18" s="48"/>
       <c r="P18" s="62"/>
       <c r="Q18" s="42"/>
-      <c r="R18" s="89"/>
+      <c r="R18" s="88"/>
       <c r="S18" s="47"/>
       <c r="T18" s="36"/>
       <c r="U18" s="36"/>
@@ -3887,14 +3887,14 @@
       <c r="H19" s="34"/>
       <c r="I19" s="35"/>
       <c r="J19" s="33"/>
-      <c r="K19" s="84"/>
+      <c r="K19" s="83"/>
       <c r="L19" s="59"/>
       <c r="M19" s="48"/>
       <c r="N19" s="62"/>
       <c r="O19" s="48"/>
       <c r="P19" s="62"/>
       <c r="Q19" s="42"/>
-      <c r="R19" s="89"/>
+      <c r="R19" s="88"/>
       <c r="S19" s="47"/>
       <c r="T19" s="36"/>
       <c r="U19" s="36"/>
@@ -4006,14 +4006,14 @@
       <c r="H20" s="34"/>
       <c r="I20" s="35"/>
       <c r="J20" s="33"/>
-      <c r="K20" s="84"/>
+      <c r="K20" s="83"/>
       <c r="L20" s="59"/>
       <c r="M20" s="48"/>
       <c r="N20" s="62"/>
       <c r="O20" s="48"/>
       <c r="P20" s="62"/>
       <c r="Q20" s="42"/>
-      <c r="R20" s="89"/>
+      <c r="R20" s="88"/>
       <c r="S20" s="47"/>
       <c r="T20" s="36"/>
       <c r="U20" s="36"/>
@@ -4125,14 +4125,14 @@
       <c r="H21" s="34"/>
       <c r="I21" s="35"/>
       <c r="J21" s="33"/>
-      <c r="K21" s="84"/>
+      <c r="K21" s="83"/>
       <c r="L21" s="59"/>
       <c r="M21" s="48"/>
       <c r="N21" s="62"/>
       <c r="O21" s="48"/>
       <c r="P21" s="62"/>
       <c r="Q21" s="42"/>
-      <c r="R21" s="89"/>
+      <c r="R21" s="88"/>
       <c r="S21" s="47"/>
       <c r="T21" s="36"/>
       <c r="U21" s="36"/>
@@ -4244,14 +4244,14 @@
       <c r="H22" s="34"/>
       <c r="I22" s="35"/>
       <c r="J22" s="33"/>
-      <c r="K22" s="84"/>
+      <c r="K22" s="83"/>
       <c r="L22" s="59"/>
       <c r="M22" s="48"/>
       <c r="N22" s="62"/>
       <c r="O22" s="48"/>
       <c r="P22" s="62"/>
       <c r="Q22" s="42"/>
-      <c r="R22" s="89"/>
+      <c r="R22" s="88"/>
       <c r="S22" s="47"/>
       <c r="T22" s="36"/>
       <c r="U22" s="36"/>
@@ -4363,14 +4363,14 @@
       <c r="H23" s="34"/>
       <c r="I23" s="35"/>
       <c r="J23" s="33"/>
-      <c r="K23" s="84"/>
+      <c r="K23" s="83"/>
       <c r="L23" s="59"/>
       <c r="M23" s="48"/>
       <c r="N23" s="62"/>
       <c r="O23" s="48"/>
       <c r="P23" s="62"/>
       <c r="Q23" s="42"/>
-      <c r="R23" s="89"/>
+      <c r="R23" s="88"/>
       <c r="S23" s="47"/>
       <c r="T23" s="36"/>
       <c r="U23" s="36"/>
@@ -4482,14 +4482,14 @@
       <c r="H24" s="34"/>
       <c r="I24" s="35"/>
       <c r="J24" s="33"/>
-      <c r="K24" s="84"/>
+      <c r="K24" s="83"/>
       <c r="L24" s="59"/>
       <c r="M24" s="48"/>
       <c r="N24" s="62"/>
       <c r="O24" s="48"/>
       <c r="P24" s="62"/>
       <c r="Q24" s="42"/>
-      <c r="R24" s="89"/>
+      <c r="R24" s="88"/>
       <c r="S24" s="47"/>
       <c r="T24" s="36"/>
       <c r="U24" s="36"/>
@@ -4601,14 +4601,14 @@
       <c r="H25" s="34"/>
       <c r="I25" s="35"/>
       <c r="J25" s="33"/>
-      <c r="K25" s="84"/>
+      <c r="K25" s="83"/>
       <c r="L25" s="59"/>
       <c r="M25" s="48"/>
       <c r="N25" s="62"/>
       <c r="O25" s="48"/>
       <c r="P25" s="62"/>
       <c r="Q25" s="42"/>
-      <c r="R25" s="89"/>
+      <c r="R25" s="88"/>
       <c r="S25" s="47"/>
       <c r="T25" s="36"/>
       <c r="U25" s="36"/>
@@ -4720,14 +4720,14 @@
       <c r="H26" s="34"/>
       <c r="I26" s="35"/>
       <c r="J26" s="33"/>
-      <c r="K26" s="84"/>
+      <c r="K26" s="83"/>
       <c r="L26" s="59"/>
       <c r="M26" s="48"/>
       <c r="N26" s="62"/>
       <c r="O26" s="48"/>
       <c r="P26" s="62"/>
       <c r="Q26" s="42"/>
-      <c r="R26" s="89"/>
+      <c r="R26" s="88"/>
       <c r="S26" s="47"/>
       <c r="T26" s="36"/>
       <c r="U26" s="36"/>
@@ -4839,14 +4839,14 @@
       <c r="H27" s="34"/>
       <c r="I27" s="35"/>
       <c r="J27" s="33"/>
-      <c r="K27" s="84"/>
+      <c r="K27" s="83"/>
       <c r="L27" s="59"/>
       <c r="M27" s="48"/>
       <c r="N27" s="62"/>
       <c r="O27" s="48"/>
       <c r="P27" s="62"/>
       <c r="Q27" s="42"/>
-      <c r="R27" s="89"/>
+      <c r="R27" s="88"/>
       <c r="S27" s="47"/>
       <c r="T27" s="36"/>
       <c r="U27" s="36"/>
@@ -4958,14 +4958,14 @@
       <c r="H28" s="34"/>
       <c r="I28" s="35"/>
       <c r="J28" s="33"/>
-      <c r="K28" s="84"/>
+      <c r="K28" s="83"/>
       <c r="L28" s="59"/>
       <c r="M28" s="48"/>
       <c r="N28" s="62"/>
       <c r="O28" s="48"/>
       <c r="P28" s="62"/>
       <c r="Q28" s="42"/>
-      <c r="R28" s="89"/>
+      <c r="R28" s="88"/>
       <c r="S28" s="47"/>
       <c r="T28" s="36"/>
       <c r="U28" s="36"/>
@@ -5077,14 +5077,14 @@
       <c r="H29" s="34"/>
       <c r="I29" s="35"/>
       <c r="J29" s="33"/>
-      <c r="K29" s="84"/>
+      <c r="K29" s="83"/>
       <c r="L29" s="59"/>
       <c r="M29" s="48"/>
       <c r="N29" s="62"/>
       <c r="O29" s="48"/>
       <c r="P29" s="62"/>
       <c r="Q29" s="42"/>
-      <c r="R29" s="89"/>
+      <c r="R29" s="88"/>
       <c r="S29" s="47"/>
       <c r="T29" s="36"/>
       <c r="U29" s="36"/>
@@ -5196,14 +5196,14 @@
       <c r="H30" s="34"/>
       <c r="I30" s="35"/>
       <c r="J30" s="33"/>
-      <c r="K30" s="84"/>
+      <c r="K30" s="83"/>
       <c r="L30" s="59"/>
       <c r="M30" s="48"/>
       <c r="N30" s="62"/>
       <c r="O30" s="48"/>
       <c r="P30" s="62"/>
       <c r="Q30" s="42"/>
-      <c r="R30" s="89"/>
+      <c r="R30" s="88"/>
       <c r="S30" s="47"/>
       <c r="T30" s="36"/>
       <c r="U30" s="36"/>
@@ -5315,14 +5315,14 @@
       <c r="H31" s="34"/>
       <c r="I31" s="35"/>
       <c r="J31" s="33"/>
-      <c r="K31" s="84"/>
+      <c r="K31" s="83"/>
       <c r="L31" s="59"/>
       <c r="M31" s="48"/>
       <c r="N31" s="62"/>
       <c r="O31" s="48"/>
       <c r="P31" s="62"/>
       <c r="Q31" s="42"/>
-      <c r="R31" s="89"/>
+      <c r="R31" s="88"/>
       <c r="S31" s="47"/>
       <c r="T31" s="36"/>
       <c r="U31" s="36"/>
@@ -5434,14 +5434,14 @@
       <c r="H32" s="34"/>
       <c r="I32" s="35"/>
       <c r="J32" s="33"/>
-      <c r="K32" s="84"/>
+      <c r="K32" s="83"/>
       <c r="L32" s="59"/>
       <c r="M32" s="48"/>
       <c r="N32" s="62"/>
       <c r="O32" s="48"/>
       <c r="P32" s="62"/>
       <c r="Q32" s="42"/>
-      <c r="R32" s="89"/>
+      <c r="R32" s="88"/>
       <c r="S32" s="47"/>
       <c r="T32" s="36"/>
       <c r="U32" s="36"/>
@@ -5553,14 +5553,14 @@
       <c r="H33" s="34"/>
       <c r="I33" s="35"/>
       <c r="J33" s="33"/>
-      <c r="K33" s="84"/>
+      <c r="K33" s="83"/>
       <c r="L33" s="59"/>
       <c r="M33" s="48"/>
       <c r="N33" s="62"/>
       <c r="O33" s="48"/>
       <c r="P33" s="62"/>
       <c r="Q33" s="42"/>
-      <c r="R33" s="89"/>
+      <c r="R33" s="88"/>
       <c r="S33" s="47"/>
       <c r="T33" s="36"/>
       <c r="U33" s="36"/>
@@ -5672,14 +5672,14 @@
       <c r="H34" s="34"/>
       <c r="I34" s="35"/>
       <c r="J34" s="33"/>
-      <c r="K34" s="84"/>
+      <c r="K34" s="83"/>
       <c r="L34" s="59"/>
       <c r="M34" s="48"/>
       <c r="N34" s="62"/>
       <c r="O34" s="48"/>
       <c r="P34" s="62"/>
       <c r="Q34" s="42"/>
-      <c r="R34" s="89"/>
+      <c r="R34" s="88"/>
       <c r="S34" s="47"/>
       <c r="T34" s="36"/>
       <c r="U34" s="36"/>
@@ -5791,14 +5791,14 @@
       <c r="H35" s="34"/>
       <c r="I35" s="35"/>
       <c r="J35" s="33"/>
-      <c r="K35" s="84"/>
+      <c r="K35" s="83"/>
       <c r="L35" s="59"/>
       <c r="M35" s="48"/>
       <c r="N35" s="62"/>
       <c r="O35" s="48"/>
       <c r="P35" s="62"/>
       <c r="Q35" s="42"/>
-      <c r="R35" s="89"/>
+      <c r="R35" s="88"/>
       <c r="S35" s="47"/>
       <c r="T35" s="36"/>
       <c r="U35" s="36"/>
@@ -5910,14 +5910,14 @@
       <c r="H36" s="34"/>
       <c r="I36" s="35"/>
       <c r="J36" s="33"/>
-      <c r="K36" s="84"/>
+      <c r="K36" s="83"/>
       <c r="L36" s="59"/>
       <c r="M36" s="48"/>
       <c r="N36" s="62"/>
       <c r="O36" s="48"/>
       <c r="P36" s="62"/>
       <c r="Q36" s="42"/>
-      <c r="R36" s="89"/>
+      <c r="R36" s="88"/>
       <c r="S36" s="47"/>
       <c r="T36" s="36"/>
       <c r="U36" s="36"/>
@@ -6029,14 +6029,14 @@
       <c r="H37" s="34"/>
       <c r="I37" s="35"/>
       <c r="J37" s="33"/>
-      <c r="K37" s="84"/>
+      <c r="K37" s="83"/>
       <c r="L37" s="59"/>
       <c r="M37" s="48"/>
       <c r="N37" s="62"/>
       <c r="O37" s="48"/>
       <c r="P37" s="62"/>
       <c r="Q37" s="42"/>
-      <c r="R37" s="89"/>
+      <c r="R37" s="88"/>
       <c r="S37" s="47"/>
       <c r="T37" s="36"/>
       <c r="U37" s="36"/>
@@ -6148,14 +6148,14 @@
       <c r="H38" s="34"/>
       <c r="I38" s="35"/>
       <c r="J38" s="33"/>
-      <c r="K38" s="84"/>
+      <c r="K38" s="83"/>
       <c r="L38" s="59"/>
       <c r="M38" s="48"/>
       <c r="N38" s="62"/>
       <c r="O38" s="48"/>
       <c r="P38" s="62"/>
       <c r="Q38" s="42"/>
-      <c r="R38" s="89"/>
+      <c r="R38" s="88"/>
       <c r="S38" s="47"/>
       <c r="T38" s="36"/>
       <c r="U38" s="36"/>
@@ -6267,14 +6267,14 @@
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="J39" s="33"/>
-      <c r="K39" s="84"/>
+      <c r="K39" s="83"/>
       <c r="L39" s="59"/>
       <c r="M39" s="48"/>
       <c r="N39" s="62"/>
       <c r="O39" s="48"/>
       <c r="P39" s="62"/>
       <c r="Q39" s="42"/>
-      <c r="R39" s="89"/>
+      <c r="R39" s="88"/>
       <c r="S39" s="47"/>
       <c r="T39" s="36"/>
       <c r="U39" s="36"/>
@@ -6386,14 +6386,14 @@
       <c r="H40" s="34"/>
       <c r="I40" s="35"/>
       <c r="J40" s="33"/>
-      <c r="K40" s="84"/>
+      <c r="K40" s="83"/>
       <c r="L40" s="59"/>
       <c r="M40" s="48"/>
       <c r="N40" s="62"/>
       <c r="O40" s="48"/>
       <c r="P40" s="62"/>
       <c r="Q40" s="42"/>
-      <c r="R40" s="89"/>
+      <c r="R40" s="88"/>
       <c r="S40" s="47"/>
       <c r="T40" s="36"/>
       <c r="U40" s="36"/>
@@ -6505,14 +6505,14 @@
       <c r="H41" s="34"/>
       <c r="I41" s="35"/>
       <c r="J41" s="33"/>
-      <c r="K41" s="84"/>
+      <c r="K41" s="83"/>
       <c r="L41" s="59"/>
       <c r="M41" s="48"/>
       <c r="N41" s="62"/>
       <c r="O41" s="48"/>
       <c r="P41" s="62"/>
       <c r="Q41" s="42"/>
-      <c r="R41" s="89"/>
+      <c r="R41" s="88"/>
       <c r="S41" s="47"/>
       <c r="T41" s="36"/>
       <c r="U41" s="36"/>
@@ -6624,14 +6624,14 @@
       <c r="H42" s="34"/>
       <c r="I42" s="35"/>
       <c r="J42" s="33"/>
-      <c r="K42" s="84"/>
+      <c r="K42" s="83"/>
       <c r="L42" s="59"/>
       <c r="M42" s="48"/>
       <c r="N42" s="62"/>
       <c r="O42" s="48"/>
       <c r="P42" s="62"/>
       <c r="Q42" s="42"/>
-      <c r="R42" s="89"/>
+      <c r="R42" s="88"/>
       <c r="S42" s="47"/>
       <c r="T42" s="36"/>
       <c r="U42" s="36"/>
@@ -6743,14 +6743,14 @@
       <c r="H43" s="34"/>
       <c r="I43" s="35"/>
       <c r="J43" s="33"/>
-      <c r="K43" s="84"/>
+      <c r="K43" s="83"/>
       <c r="L43" s="59"/>
       <c r="M43" s="48"/>
       <c r="N43" s="62"/>
       <c r="O43" s="48"/>
       <c r="P43" s="62"/>
       <c r="Q43" s="42"/>
-      <c r="R43" s="89"/>
+      <c r="R43" s="88"/>
       <c r="S43" s="47"/>
       <c r="T43" s="36"/>
       <c r="U43" s="36"/>
@@ -6862,14 +6862,14 @@
       <c r="H44" s="34"/>
       <c r="I44" s="35"/>
       <c r="J44" s="33"/>
-      <c r="K44" s="84"/>
+      <c r="K44" s="83"/>
       <c r="L44" s="59"/>
       <c r="M44" s="48"/>
       <c r="N44" s="62"/>
       <c r="O44" s="48"/>
       <c r="P44" s="62"/>
       <c r="Q44" s="42"/>
-      <c r="R44" s="89"/>
+      <c r="R44" s="88"/>
       <c r="S44" s="47"/>
       <c r="T44" s="36"/>
       <c r="U44" s="36"/>
@@ -6981,14 +6981,14 @@
       <c r="H45" s="34"/>
       <c r="I45" s="35"/>
       <c r="J45" s="33"/>
-      <c r="K45" s="84"/>
+      <c r="K45" s="83"/>
       <c r="L45" s="59"/>
       <c r="M45" s="48"/>
       <c r="N45" s="62"/>
       <c r="O45" s="48"/>
       <c r="P45" s="62"/>
       <c r="Q45" s="42"/>
-      <c r="R45" s="89"/>
+      <c r="R45" s="88"/>
       <c r="S45" s="47"/>
       <c r="T45" s="36"/>
       <c r="U45" s="36"/>
@@ -7100,14 +7100,14 @@
       <c r="H46" s="34"/>
       <c r="I46" s="35"/>
       <c r="J46" s="33"/>
-      <c r="K46" s="84"/>
+      <c r="K46" s="83"/>
       <c r="L46" s="59"/>
       <c r="M46" s="48"/>
       <c r="N46" s="62"/>
       <c r="O46" s="48"/>
       <c r="P46" s="62"/>
       <c r="Q46" s="42"/>
-      <c r="R46" s="89"/>
+      <c r="R46" s="88"/>
       <c r="S46" s="47"/>
       <c r="T46" s="36"/>
       <c r="U46" s="36"/>
@@ -7219,14 +7219,14 @@
       <c r="H47" s="34"/>
       <c r="I47" s="35"/>
       <c r="J47" s="33"/>
-      <c r="K47" s="84"/>
+      <c r="K47" s="83"/>
       <c r="L47" s="59"/>
       <c r="M47" s="48"/>
       <c r="N47" s="62"/>
       <c r="O47" s="48"/>
       <c r="P47" s="62"/>
       <c r="Q47" s="42"/>
-      <c r="R47" s="89"/>
+      <c r="R47" s="88"/>
       <c r="S47" s="47"/>
       <c r="T47" s="36"/>
       <c r="U47" s="36"/>
@@ -7338,14 +7338,14 @@
       <c r="H48" s="34"/>
       <c r="I48" s="35"/>
       <c r="J48" s="33"/>
-      <c r="K48" s="84"/>
+      <c r="K48" s="83"/>
       <c r="L48" s="59"/>
       <c r="M48" s="48"/>
       <c r="N48" s="62"/>
       <c r="O48" s="48"/>
       <c r="P48" s="62"/>
       <c r="Q48" s="42"/>
-      <c r="R48" s="89"/>
+      <c r="R48" s="88"/>
       <c r="S48" s="47"/>
       <c r="T48" s="36"/>
       <c r="U48" s="36"/>
@@ -7457,14 +7457,14 @@
       <c r="H49" s="34"/>
       <c r="I49" s="35"/>
       <c r="J49" s="33"/>
-      <c r="K49" s="84"/>
+      <c r="K49" s="83"/>
       <c r="L49" s="59"/>
       <c r="M49" s="48"/>
       <c r="N49" s="62"/>
       <c r="O49" s="48"/>
       <c r="P49" s="62"/>
       <c r="Q49" s="42"/>
-      <c r="R49" s="89"/>
+      <c r="R49" s="88"/>
       <c r="S49" s="47"/>
       <c r="T49" s="36"/>
       <c r="U49" s="36"/>
@@ -7576,14 +7576,14 @@
       <c r="H50" s="34"/>
       <c r="I50" s="35"/>
       <c r="J50" s="33"/>
-      <c r="K50" s="84"/>
+      <c r="K50" s="83"/>
       <c r="L50" s="59"/>
       <c r="M50" s="48"/>
       <c r="N50" s="62"/>
       <c r="O50" s="48"/>
       <c r="P50" s="62"/>
       <c r="Q50" s="42"/>
-      <c r="R50" s="89"/>
+      <c r="R50" s="88"/>
       <c r="S50" s="47"/>
       <c r="T50" s="36"/>
       <c r="U50" s="36"/>
@@ -7695,14 +7695,14 @@
       <c r="H51" s="34"/>
       <c r="I51" s="35"/>
       <c r="J51" s="33"/>
-      <c r="K51" s="84"/>
+      <c r="K51" s="83"/>
       <c r="L51" s="59"/>
       <c r="M51" s="48"/>
       <c r="N51" s="62"/>
       <c r="O51" s="48"/>
       <c r="P51" s="62"/>
       <c r="Q51" s="42"/>
-      <c r="R51" s="89"/>
+      <c r="R51" s="88"/>
       <c r="S51" s="47"/>
       <c r="T51" s="36"/>
       <c r="U51" s="36"/>
@@ -7814,14 +7814,14 @@
       <c r="H52" s="34"/>
       <c r="I52" s="35"/>
       <c r="J52" s="33"/>
-      <c r="K52" s="84"/>
+      <c r="K52" s="83"/>
       <c r="L52" s="59"/>
       <c r="M52" s="48"/>
       <c r="N52" s="62"/>
       <c r="O52" s="48"/>
       <c r="P52" s="62"/>
       <c r="Q52" s="42"/>
-      <c r="R52" s="89"/>
+      <c r="R52" s="88"/>
       <c r="S52" s="47"/>
       <c r="T52" s="36"/>
       <c r="U52" s="36"/>
@@ -7933,14 +7933,14 @@
       <c r="H53" s="34"/>
       <c r="I53" s="35"/>
       <c r="J53" s="33"/>
-      <c r="K53" s="84"/>
+      <c r="K53" s="83"/>
       <c r="L53" s="59"/>
       <c r="M53" s="48"/>
       <c r="N53" s="62"/>
       <c r="O53" s="48"/>
       <c r="P53" s="62"/>
       <c r="Q53" s="42"/>
-      <c r="R53" s="89"/>
+      <c r="R53" s="88"/>
       <c r="S53" s="47"/>
       <c r="T53" s="36"/>
       <c r="U53" s="36"/>
@@ -8052,14 +8052,14 @@
       <c r="H54" s="34"/>
       <c r="I54" s="35"/>
       <c r="J54" s="33"/>
-      <c r="K54" s="84"/>
+      <c r="K54" s="83"/>
       <c r="L54" s="59"/>
       <c r="M54" s="48"/>
       <c r="N54" s="62"/>
       <c r="O54" s="48"/>
       <c r="P54" s="62"/>
       <c r="Q54" s="42"/>
-      <c r="R54" s="89"/>
+      <c r="R54" s="88"/>
       <c r="S54" s="47"/>
       <c r="T54" s="36"/>
       <c r="U54" s="36"/>
@@ -8171,14 +8171,14 @@
       <c r="H55" s="34"/>
       <c r="I55" s="35"/>
       <c r="J55" s="33"/>
-      <c r="K55" s="84"/>
+      <c r="K55" s="83"/>
       <c r="L55" s="59"/>
       <c r="M55" s="48"/>
       <c r="N55" s="62"/>
       <c r="O55" s="48"/>
       <c r="P55" s="62"/>
       <c r="Q55" s="42"/>
-      <c r="R55" s="89"/>
+      <c r="R55" s="88"/>
       <c r="S55" s="47"/>
       <c r="T55" s="36"/>
       <c r="U55" s="36"/>
@@ -8281,7 +8281,7 @@
       <c r="DN55" s="37"/>
     </row>
     <row r="1048538" spans="19:118" x14ac:dyDescent="0.25">
-      <c r="S1048538" s="88"/>
+      <c r="S1048538" s="87"/>
       <c r="T1048538" s="48"/>
       <c r="U1048538" s="48"/>
       <c r="V1048538" s="48"/>
@@ -8380,10 +8380,10 @@
       <c r="DK1048538" s="48"/>
       <c r="DL1048538" s="48"/>
       <c r="DM1048538" s="48"/>
-      <c r="DN1048538" s="84"/>
+      <c r="DN1048538" s="83"/>
     </row>
     <row r="1048539" spans="19:118" x14ac:dyDescent="0.25">
-      <c r="S1048539" s="88"/>
+      <c r="S1048539" s="87"/>
       <c r="T1048539" s="48"/>
       <c r="U1048539" s="48"/>
       <c r="V1048539" s="48"/>
@@ -8482,10 +8482,10 @@
       <c r="DK1048539" s="48"/>
       <c r="DL1048539" s="48"/>
       <c r="DM1048539" s="48"/>
-      <c r="DN1048539" s="84"/>
+      <c r="DN1048539" s="83"/>
     </row>
     <row r="1048540" spans="19:118" x14ac:dyDescent="0.25">
-      <c r="S1048540" s="88"/>
+      <c r="S1048540" s="87"/>
       <c r="T1048540" s="48"/>
       <c r="U1048540" s="48"/>
       <c r="V1048540" s="48"/>
@@ -8584,10 +8584,10 @@
       <c r="DK1048540" s="48"/>
       <c r="DL1048540" s="48"/>
       <c r="DM1048540" s="48"/>
-      <c r="DN1048540" s="84"/>
+      <c r="DN1048540" s="83"/>
     </row>
     <row r="1048541" spans="19:118" x14ac:dyDescent="0.25">
-      <c r="S1048541" s="88"/>
+      <c r="S1048541" s="87"/>
       <c r="T1048541" s="48"/>
       <c r="U1048541" s="48"/>
       <c r="V1048541" s="48"/>
@@ -8686,10 +8686,10 @@
       <c r="DK1048541" s="48"/>
       <c r="DL1048541" s="48"/>
       <c r="DM1048541" s="48"/>
-      <c r="DN1048541" s="84"/>
+      <c r="DN1048541" s="83"/>
     </row>
     <row r="1048542" spans="19:118" x14ac:dyDescent="0.25">
-      <c r="S1048542" s="88"/>
+      <c r="S1048542" s="87"/>
       <c r="T1048542" s="48"/>
       <c r="U1048542" s="48"/>
       <c r="V1048542" s="48"/>
@@ -8788,10 +8788,10 @@
       <c r="DK1048542" s="48"/>
       <c r="DL1048542" s="48"/>
       <c r="DM1048542" s="48"/>
-      <c r="DN1048542" s="84"/>
+      <c r="DN1048542" s="83"/>
     </row>
     <row r="1048543" spans="19:118" x14ac:dyDescent="0.25">
-      <c r="S1048543" s="88"/>
+      <c r="S1048543" s="87"/>
       <c r="T1048543" s="48"/>
       <c r="U1048543" s="48"/>
       <c r="V1048543" s="48"/>
@@ -8890,10 +8890,10 @@
       <c r="DK1048543" s="48"/>
       <c r="DL1048543" s="48"/>
       <c r="DM1048543" s="48"/>
-      <c r="DN1048543" s="84"/>
+      <c r="DN1048543" s="83"/>
     </row>
     <row r="1048544" spans="19:118" x14ac:dyDescent="0.25">
-      <c r="S1048544" s="88"/>
+      <c r="S1048544" s="87"/>
       <c r="T1048544" s="48"/>
       <c r="U1048544" s="48"/>
       <c r="V1048544" s="48"/>
@@ -8992,10 +8992,10 @@
       <c r="DK1048544" s="48"/>
       <c r="DL1048544" s="48"/>
       <c r="DM1048544" s="48"/>
-      <c r="DN1048544" s="84"/>
+      <c r="DN1048544" s="83"/>
     </row>
     <row r="1048545" spans="19:118" x14ac:dyDescent="0.25">
-      <c r="S1048545" s="88"/>
+      <c r="S1048545" s="87"/>
       <c r="T1048545" s="48"/>
       <c r="U1048545" s="48"/>
       <c r="V1048545" s="48"/>
@@ -9094,10 +9094,10 @@
       <c r="DK1048545" s="48"/>
       <c r="DL1048545" s="48"/>
       <c r="DM1048545" s="48"/>
-      <c r="DN1048545" s="84"/>
+      <c r="DN1048545" s="83"/>
     </row>
     <row r="1048546" spans="19:118" x14ac:dyDescent="0.25">
-      <c r="S1048546" s="88"/>
+      <c r="S1048546" s="87"/>
       <c r="T1048546" s="48"/>
       <c r="U1048546" s="48"/>
       <c r="V1048546" s="48"/>
@@ -9196,10 +9196,10 @@
       <c r="DK1048546" s="48"/>
       <c r="DL1048546" s="48"/>
       <c r="DM1048546" s="48"/>
-      <c r="DN1048546" s="84"/>
+      <c r="DN1048546" s="83"/>
     </row>
     <row r="1048547" spans="19:118" x14ac:dyDescent="0.25">
-      <c r="S1048547" s="88"/>
+      <c r="S1048547" s="87"/>
       <c r="T1048547" s="48"/>
       <c r="U1048547" s="48"/>
       <c r="V1048547" s="48"/>
@@ -9298,10 +9298,10 @@
       <c r="DK1048547" s="48"/>
       <c r="DL1048547" s="48"/>
       <c r="DM1048547" s="48"/>
-      <c r="DN1048547" s="84"/>
+      <c r="DN1048547" s="83"/>
     </row>
     <row r="1048548" spans="19:118" x14ac:dyDescent="0.25">
-      <c r="S1048548" s="88"/>
+      <c r="S1048548" s="87"/>
       <c r="T1048548" s="48"/>
       <c r="U1048548" s="48"/>
       <c r="V1048548" s="48"/>
@@ -9400,10 +9400,10 @@
       <c r="DK1048548" s="48"/>
       <c r="DL1048548" s="48"/>
       <c r="DM1048548" s="48"/>
-      <c r="DN1048548" s="84"/>
+      <c r="DN1048548" s="83"/>
     </row>
     <row r="1048549" spans="19:118" x14ac:dyDescent="0.25">
-      <c r="S1048549" s="88"/>
+      <c r="S1048549" s="87"/>
       <c r="T1048549" s="48"/>
       <c r="U1048549" s="48"/>
       <c r="V1048549" s="48"/>
@@ -9502,10 +9502,10 @@
       <c r="DK1048549" s="48"/>
       <c r="DL1048549" s="48"/>
       <c r="DM1048549" s="48"/>
-      <c r="DN1048549" s="84"/>
+      <c r="DN1048549" s="83"/>
     </row>
     <row r="1048550" spans="19:118" x14ac:dyDescent="0.25">
-      <c r="S1048550" s="88"/>
+      <c r="S1048550" s="87"/>
       <c r="T1048550" s="48"/>
       <c r="U1048550" s="48"/>
       <c r="V1048550" s="48"/>
@@ -9604,10 +9604,10 @@
       <c r="DK1048550" s="48"/>
       <c r="DL1048550" s="48"/>
       <c r="DM1048550" s="48"/>
-      <c r="DN1048550" s="84"/>
+      <c r="DN1048550" s="83"/>
     </row>
     <row r="1048551" spans="19:118" x14ac:dyDescent="0.25">
-      <c r="S1048551" s="88"/>
+      <c r="S1048551" s="87"/>
       <c r="T1048551" s="48"/>
       <c r="U1048551" s="48"/>
       <c r="V1048551" s="48"/>
@@ -9706,10 +9706,10 @@
       <c r="DK1048551" s="48"/>
       <c r="DL1048551" s="48"/>
       <c r="DM1048551" s="48"/>
-      <c r="DN1048551" s="84"/>
+      <c r="DN1048551" s="83"/>
     </row>
     <row r="1048552" spans="19:118" x14ac:dyDescent="0.25">
-      <c r="S1048552" s="88"/>
+      <c r="S1048552" s="87"/>
       <c r="T1048552" s="48"/>
       <c r="U1048552" s="48"/>
       <c r="V1048552" s="48"/>
@@ -9808,10 +9808,10 @@
       <c r="DK1048552" s="48"/>
       <c r="DL1048552" s="48"/>
       <c r="DM1048552" s="48"/>
-      <c r="DN1048552" s="84"/>
+      <c r="DN1048552" s="83"/>
     </row>
     <row r="1048553" spans="19:118" x14ac:dyDescent="0.25">
-      <c r="S1048553" s="88"/>
+      <c r="S1048553" s="87"/>
       <c r="T1048553" s="48"/>
       <c r="U1048553" s="48"/>
       <c r="V1048553" s="48"/>
@@ -9910,10 +9910,10 @@
       <c r="DK1048553" s="48"/>
       <c r="DL1048553" s="48"/>
       <c r="DM1048553" s="48"/>
-      <c r="DN1048553" s="84"/>
+      <c r="DN1048553" s="83"/>
     </row>
     <row r="1048554" spans="19:118" x14ac:dyDescent="0.25">
-      <c r="S1048554" s="88"/>
+      <c r="S1048554" s="87"/>
       <c r="T1048554" s="48"/>
       <c r="U1048554" s="48"/>
       <c r="V1048554" s="48"/>
@@ -10012,10 +10012,10 @@
       <c r="DK1048554" s="48"/>
       <c r="DL1048554" s="48"/>
       <c r="DM1048554" s="48"/>
-      <c r="DN1048554" s="84"/>
+      <c r="DN1048554" s="83"/>
     </row>
     <row r="1048555" spans="19:118" x14ac:dyDescent="0.25">
-      <c r="S1048555" s="88"/>
+      <c r="S1048555" s="87"/>
       <c r="T1048555" s="48"/>
       <c r="U1048555" s="48"/>
       <c r="V1048555" s="48"/>
@@ -10114,10 +10114,10 @@
       <c r="DK1048555" s="48"/>
       <c r="DL1048555" s="48"/>
       <c r="DM1048555" s="48"/>
-      <c r="DN1048555" s="84"/>
+      <c r="DN1048555" s="83"/>
     </row>
     <row r="1048556" spans="19:118" x14ac:dyDescent="0.25">
-      <c r="S1048556" s="88"/>
+      <c r="S1048556" s="87"/>
       <c r="T1048556" s="48"/>
       <c r="U1048556" s="48"/>
       <c r="V1048556" s="48"/>
@@ -10216,10 +10216,10 @@
       <c r="DK1048556" s="48"/>
       <c r="DL1048556" s="48"/>
       <c r="DM1048556" s="48"/>
-      <c r="DN1048556" s="84"/>
+      <c r="DN1048556" s="83"/>
     </row>
     <row r="1048557" spans="19:118" x14ac:dyDescent="0.25">
-      <c r="S1048557" s="88"/>
+      <c r="S1048557" s="87"/>
       <c r="T1048557" s="48"/>
       <c r="U1048557" s="48"/>
       <c r="V1048557" s="48"/>
@@ -10318,10 +10318,10 @@
       <c r="DK1048557" s="48"/>
       <c r="DL1048557" s="48"/>
       <c r="DM1048557" s="48"/>
-      <c r="DN1048557" s="84"/>
+      <c r="DN1048557" s="83"/>
     </row>
     <row r="1048558" spans="19:118" x14ac:dyDescent="0.25">
-      <c r="S1048558" s="88"/>
+      <c r="S1048558" s="87"/>
       <c r="T1048558" s="48"/>
       <c r="U1048558" s="48"/>
       <c r="V1048558" s="48"/>
@@ -10420,10 +10420,10 @@
       <c r="DK1048558" s="48"/>
       <c r="DL1048558" s="48"/>
       <c r="DM1048558" s="48"/>
-      <c r="DN1048558" s="84"/>
+      <c r="DN1048558" s="83"/>
     </row>
     <row r="1048559" spans="19:118" x14ac:dyDescent="0.25">
-      <c r="S1048559" s="88"/>
+      <c r="S1048559" s="87"/>
       <c r="T1048559" s="48"/>
       <c r="U1048559" s="48"/>
       <c r="V1048559" s="48"/>
@@ -10522,10 +10522,10 @@
       <c r="DK1048559" s="48"/>
       <c r="DL1048559" s="48"/>
       <c r="DM1048559" s="48"/>
-      <c r="DN1048559" s="84"/>
+      <c r="DN1048559" s="83"/>
     </row>
     <row r="1048560" spans="19:118" x14ac:dyDescent="0.25">
-      <c r="S1048560" s="88"/>
+      <c r="S1048560" s="87"/>
       <c r="T1048560" s="48"/>
       <c r="U1048560" s="48"/>
       <c r="V1048560" s="48"/>
@@ -10624,10 +10624,10 @@
       <c r="DK1048560" s="48"/>
       <c r="DL1048560" s="48"/>
       <c r="DM1048560" s="48"/>
-      <c r="DN1048560" s="84"/>
+      <c r="DN1048560" s="83"/>
     </row>
     <row r="1048561" spans="18:118" x14ac:dyDescent="0.25">
-      <c r="S1048561" s="88"/>
+      <c r="S1048561" s="87"/>
       <c r="T1048561" s="48"/>
       <c r="U1048561" s="48"/>
       <c r="V1048561" s="48"/>
@@ -10726,10 +10726,10 @@
       <c r="DK1048561" s="48"/>
       <c r="DL1048561" s="48"/>
       <c r="DM1048561" s="48"/>
-      <c r="DN1048561" s="84"/>
+      <c r="DN1048561" s="83"/>
     </row>
     <row r="1048562" spans="18:118" x14ac:dyDescent="0.25">
-      <c r="S1048562" s="88"/>
+      <c r="S1048562" s="87"/>
       <c r="T1048562" s="48"/>
       <c r="U1048562" s="48"/>
       <c r="V1048562" s="48"/>
@@ -10828,10 +10828,10 @@
       <c r="DK1048562" s="48"/>
       <c r="DL1048562" s="48"/>
       <c r="DM1048562" s="48"/>
-      <c r="DN1048562" s="84"/>
+      <c r="DN1048562" s="83"/>
     </row>
     <row r="1048563" spans="18:118" x14ac:dyDescent="0.25">
-      <c r="S1048563" s="88"/>
+      <c r="S1048563" s="87"/>
       <c r="T1048563" s="48"/>
       <c r="U1048563" s="48"/>
       <c r="V1048563" s="48"/>
@@ -10930,10 +10930,10 @@
       <c r="DK1048563" s="48"/>
       <c r="DL1048563" s="48"/>
       <c r="DM1048563" s="48"/>
-      <c r="DN1048563" s="84"/>
+      <c r="DN1048563" s="83"/>
     </row>
     <row r="1048564" spans="18:118" x14ac:dyDescent="0.25">
-      <c r="S1048564" s="88"/>
+      <c r="S1048564" s="87"/>
       <c r="T1048564" s="48"/>
       <c r="U1048564" s="48"/>
       <c r="V1048564" s="48"/>
@@ -11032,10 +11032,10 @@
       <c r="DK1048564" s="48"/>
       <c r="DL1048564" s="48"/>
       <c r="DM1048564" s="48"/>
-      <c r="DN1048564" s="84"/>
+      <c r="DN1048564" s="83"/>
     </row>
     <row r="1048565" spans="18:118" x14ac:dyDescent="0.25">
-      <c r="S1048565" s="88"/>
+      <c r="S1048565" s="87"/>
       <c r="T1048565" s="48"/>
       <c r="U1048565" s="48"/>
       <c r="V1048565" s="48"/>
@@ -11134,10 +11134,10 @@
       <c r="DK1048565" s="48"/>
       <c r="DL1048565" s="48"/>
       <c r="DM1048565" s="48"/>
-      <c r="DN1048565" s="84"/>
+      <c r="DN1048565" s="83"/>
     </row>
     <row r="1048566" spans="18:118" x14ac:dyDescent="0.25">
-      <c r="S1048566" s="88"/>
+      <c r="S1048566" s="87"/>
       <c r="T1048566" s="48"/>
       <c r="U1048566" s="48"/>
       <c r="V1048566" s="48"/>
@@ -11236,10 +11236,10 @@
       <c r="DK1048566" s="48"/>
       <c r="DL1048566" s="48"/>
       <c r="DM1048566" s="48"/>
-      <c r="DN1048566" s="84"/>
+      <c r="DN1048566" s="83"/>
     </row>
     <row r="1048567" spans="18:118" x14ac:dyDescent="0.25">
-      <c r="S1048567" s="88"/>
+      <c r="S1048567" s="87"/>
       <c r="T1048567" s="48"/>
       <c r="U1048567" s="48"/>
       <c r="V1048567" s="48"/>
@@ -11338,10 +11338,10 @@
       <c r="DK1048567" s="48"/>
       <c r="DL1048567" s="48"/>
       <c r="DM1048567" s="48"/>
-      <c r="DN1048567" s="84"/>
+      <c r="DN1048567" s="83"/>
     </row>
     <row r="1048568" spans="18:118" x14ac:dyDescent="0.25">
-      <c r="S1048568" s="88"/>
+      <c r="S1048568" s="87"/>
       <c r="T1048568" s="48"/>
       <c r="U1048568" s="48"/>
       <c r="V1048568" s="48"/>
@@ -11440,10 +11440,10 @@
       <c r="DK1048568" s="48"/>
       <c r="DL1048568" s="48"/>
       <c r="DM1048568" s="48"/>
-      <c r="DN1048568" s="84"/>
+      <c r="DN1048568" s="83"/>
     </row>
     <row r="1048569" spans="18:118" x14ac:dyDescent="0.25">
-      <c r="S1048569" s="88"/>
+      <c r="S1048569" s="87"/>
       <c r="T1048569" s="48"/>
       <c r="U1048569" s="48"/>
       <c r="V1048569" s="48"/>
@@ -11542,10 +11542,10 @@
       <c r="DK1048569" s="48"/>
       <c r="DL1048569" s="48"/>
       <c r="DM1048569" s="48"/>
-      <c r="DN1048569" s="84"/>
+      <c r="DN1048569" s="83"/>
     </row>
     <row r="1048570" spans="18:118" x14ac:dyDescent="0.25">
-      <c r="S1048570" s="88"/>
+      <c r="S1048570" s="87"/>
       <c r="T1048570" s="48"/>
       <c r="U1048570" s="48"/>
       <c r="V1048570" s="48"/>
@@ -11644,10 +11644,10 @@
       <c r="DK1048570" s="48"/>
       <c r="DL1048570" s="48"/>
       <c r="DM1048570" s="48"/>
-      <c r="DN1048570" s="84"/>
+      <c r="DN1048570" s="83"/>
     </row>
     <row r="1048571" spans="18:118" x14ac:dyDescent="0.25">
-      <c r="S1048571" s="88"/>
+      <c r="S1048571" s="87"/>
       <c r="T1048571" s="48"/>
       <c r="U1048571" s="48"/>
       <c r="V1048571" s="48"/>
@@ -11746,10 +11746,10 @@
       <c r="DK1048571" s="48"/>
       <c r="DL1048571" s="48"/>
       <c r="DM1048571" s="48"/>
-      <c r="DN1048571" s="84"/>
+      <c r="DN1048571" s="83"/>
     </row>
     <row r="1048572" spans="18:118" x14ac:dyDescent="0.25">
-      <c r="S1048572" s="88"/>
+      <c r="S1048572" s="87"/>
       <c r="T1048572" s="48"/>
       <c r="U1048572" s="48"/>
       <c r="V1048572" s="48"/>
@@ -11848,10 +11848,10 @@
       <c r="DK1048572" s="48"/>
       <c r="DL1048572" s="48"/>
       <c r="DM1048572" s="48"/>
-      <c r="DN1048572" s="84"/>
+      <c r="DN1048572" s="83"/>
     </row>
     <row r="1048573" spans="18:118" x14ac:dyDescent="0.25">
-      <c r="S1048573" s="88"/>
+      <c r="S1048573" s="87"/>
       <c r="T1048573" s="48"/>
       <c r="U1048573" s="48"/>
       <c r="V1048573" s="48"/>
@@ -11950,10 +11950,10 @@
       <c r="DK1048573" s="48"/>
       <c r="DL1048573" s="48"/>
       <c r="DM1048573" s="48"/>
-      <c r="DN1048573" s="84"/>
+      <c r="DN1048573" s="83"/>
     </row>
     <row r="1048574" spans="18:118" x14ac:dyDescent="0.25">
-      <c r="S1048574" s="88"/>
+      <c r="S1048574" s="87"/>
       <c r="T1048574" s="48"/>
       <c r="U1048574" s="48"/>
       <c r="V1048574" s="48"/>
@@ -12052,10 +12052,10 @@
       <c r="DK1048574" s="48"/>
       <c r="DL1048574" s="48"/>
       <c r="DM1048574" s="48"/>
-      <c r="DN1048574" s="84"/>
+      <c r="DN1048574" s="83"/>
     </row>
     <row r="1048575" spans="18:118" x14ac:dyDescent="0.25">
-      <c r="S1048575" s="88"/>
+      <c r="S1048575" s="87"/>
       <c r="T1048575" s="48"/>
       <c r="U1048575" s="48"/>
       <c r="V1048575" s="48"/>
@@ -12154,11 +12154,11 @@
       <c r="DK1048575" s="48"/>
       <c r="DL1048575" s="48"/>
       <c r="DM1048575" s="48"/>
-      <c r="DN1048575" s="84"/>
+      <c r="DN1048575" s="83"/>
     </row>
     <row r="1048576" spans="18:118" x14ac:dyDescent="0.25">
-      <c r="R1048576" s="91"/>
-      <c r="S1048576" s="88"/>
+      <c r="R1048576" s="90"/>
+      <c r="S1048576" s="87"/>
       <c r="T1048576" s="48"/>
       <c r="U1048576" s="48"/>
       <c r="V1048576" s="48"/>
@@ -12257,10 +12257,10 @@
       <c r="DK1048576" s="48"/>
       <c r="DL1048576" s="48"/>
       <c r="DM1048576" s="48"/>
-      <c r="DN1048576" s="84"/>
+      <c r="DN1048576" s="83"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="CpS3KGBp4xTIFnZNiF5ER/acQgr3ckXL23oPW0sfMvmilZkJ5TZekYM95R2f/VQ7GmjKv3aneQTvtPM4Xobv1g==" saltValue="FQ34kWeNcbOCSvKguY1BCg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="vw6t14CPypNsSIifRN1oPg72zlxag3VTXFD/i2QnrsC+ULQdSspLVMiGCEGq4JVgryhhvE00BBPV+h6V535llw==" saltValue="d4X/Z3HFkURbqs6KBvLbNQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="6">
     <mergeCell ref="S3:DN3"/>
     <mergeCell ref="B4:E4"/>

--- a/form_reporting_templates/Form-3CE.xlsx
+++ b/form_reporting_templates/Form-3CE.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\dev\git\BitBucket workspaces\IOTC-ws\Data dissemination\iotc-reference-forms\form_reporting_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7572C7EC-FDDF-4DD2-A940-E6C11B5AA52F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45956061-CD76-4F18-A682-4B320F555CE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="D/L7RJXD1bM7VSukp9nBPXamnS2mKwuV7VHnNS9bopG+/gy69KSPIxEDp2efAHIwM2oGVTU5uyDQpmk0iVlvLw==" workbookSaltValue="ZXtEfnD7/zBb2FnSisyo4w==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1140" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -120,9 +120,6 @@
     <t>Species</t>
   </si>
   <si>
-    <t>Main stratum</t>
-  </si>
-  <si>
     <t>%</t>
   </si>
   <si>
@@ -154,6 +151,9 @@
   </si>
   <si>
     <t>3CE</t>
+  </si>
+  <si>
+    <t>Main elements</t>
   </si>
 </sst>
 </file>
@@ -759,7 +759,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -769,13 +769,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
+      <left/>
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -786,7 +786,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1001,18 +1001,10 @@
     <xf numFmtId="2" fontId="1" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1121,7 +1113,27 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1473,24 +1485,24 @@
   <sheetData>
     <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="95" t="s">
-        <v>36</v>
+      <c r="B2" s="93" t="s">
+        <v>35</v>
       </c>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="97"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="95"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="98"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="100"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="98"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
@@ -1498,14 +1510,14 @@
         <v>15</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="4" t="s">
         <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H4" s="8"/>
     </row>
@@ -1540,15 +1552,15 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="9"/>
-      <c r="C8" s="94" t="s">
+      <c r="C8" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="94"/>
+      <c r="D8" s="92"/>
       <c r="E8" s="10"/>
-      <c r="F8" s="94" t="s">
-        <v>31</v>
+      <c r="F8" s="92" t="s">
+        <v>30</v>
       </c>
-      <c r="G8" s="94"/>
+      <c r="G8" s="92"/>
       <c r="H8" s="11"/>
     </row>
     <row r="9" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1567,12 +1579,12 @@
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="9"/>
       <c r="C10" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" s="23"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G10" s="23"/>
       <c r="H10" s="11"/>
@@ -1589,7 +1601,7 @@
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="9"/>
       <c r="C12" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="43"/>
       <c r="E12" s="10"/>
@@ -1660,7 +1672,7 @@
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="9"/>
       <c r="C19" s="64" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D19" s="44"/>
       <c r="E19" s="10"/>
@@ -1671,7 +1683,7 @@
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="9"/>
       <c r="C20" s="64" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D20" s="44"/>
       <c r="E20" s="10"/>
@@ -1719,11 +1731,11 @@
     </row>
     <row r="25" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="9"/>
-      <c r="C25" s="91"/>
-      <c r="D25" s="92"/>
-      <c r="E25" s="92"/>
-      <c r="F25" s="92"/>
-      <c r="G25" s="93"/>
+      <c r="C25" s="89"/>
+      <c r="D25" s="90"/>
+      <c r="E25" s="90"/>
+      <c r="F25" s="90"/>
+      <c r="G25" s="91"/>
       <c r="H25" s="11"/>
     </row>
     <row r="26" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1777,20 +1789,20 @@
     <col min="1" max="1" width="2.85546875" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" style="60" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" style="63" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="63" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="81" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="60" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="79" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="60" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="112" customWidth="1"/>
     <col min="7" max="8" width="11.42578125" style="63" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" style="81" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="79" customWidth="1"/>
     <col min="10" max="10" width="11.42578125" style="60" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" style="84" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="82" customWidth="1"/>
     <col min="12" max="12" width="11.42578125" style="60" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" style="85" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" style="83" customWidth="1"/>
     <col min="14" max="14" width="11.42578125" style="63" customWidth="1"/>
-    <col min="15" max="15" width="10.7109375" style="85" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" style="83" customWidth="1"/>
     <col min="16" max="16" width="11.42578125" style="63" customWidth="1"/>
-    <col min="17" max="17" width="10.7109375" style="86" customWidth="1"/>
-    <col min="18" max="18" width="10" style="89" customWidth="1"/>
+    <col min="17" max="17" width="10.7109375" style="84" customWidth="1"/>
+    <col min="18" max="18" width="10" style="87" customWidth="1"/>
     <col min="19" max="19" width="9.140625" style="51"/>
     <col min="20" max="117" width="9.140625" style="49"/>
     <col min="118" max="118" width="9.140625" style="50"/>
@@ -1807,24 +1819,24 @@
       <c r="Q1" s="41"/>
     </row>
     <row r="2" spans="2:118" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="95" t="s">
-        <v>35</v>
+      <c r="B2" s="93" t="s">
+        <v>34</v>
       </c>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="96"/>
-      <c r="N2" s="96"/>
-      <c r="O2" s="96"/>
-      <c r="P2" s="96"/>
-      <c r="Q2" s="96"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
+      <c r="N2" s="94"/>
+      <c r="O2" s="94"/>
+      <c r="P2" s="94"/>
+      <c r="Q2" s="94"/>
       <c r="R2" s="38"/>
       <c r="S2" s="38"/>
       <c r="T2" s="38"/>
@@ -1928,152 +1940,152 @@
       <c r="DN2" s="40"/>
     </row>
     <row r="3" spans="2:118" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="98"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="99"/>
-      <c r="K3" s="99"/>
-      <c r="L3" s="99"/>
-      <c r="M3" s="99"/>
-      <c r="N3" s="99"/>
-      <c r="O3" s="99"/>
-      <c r="P3" s="99"/>
-      <c r="Q3" s="99"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="97"/>
+      <c r="N3" s="97"/>
+      <c r="O3" s="97"/>
+      <c r="P3" s="97"/>
+      <c r="Q3" s="97"/>
       <c r="R3" s="39"/>
-      <c r="S3" s="101" t="s">
+      <c r="S3" s="99" t="s">
         <v>25</v>
       </c>
-      <c r="T3" s="102"/>
-      <c r="U3" s="102"/>
-      <c r="V3" s="102"/>
-      <c r="W3" s="102"/>
-      <c r="X3" s="102"/>
-      <c r="Y3" s="102"/>
-      <c r="Z3" s="102"/>
-      <c r="AA3" s="102"/>
-      <c r="AB3" s="102"/>
-      <c r="AC3" s="102"/>
-      <c r="AD3" s="102"/>
-      <c r="AE3" s="102"/>
-      <c r="AF3" s="102"/>
-      <c r="AG3" s="102"/>
-      <c r="AH3" s="102"/>
-      <c r="AI3" s="102"/>
-      <c r="AJ3" s="102"/>
-      <c r="AK3" s="102"/>
-      <c r="AL3" s="102"/>
-      <c r="AM3" s="102"/>
-      <c r="AN3" s="102"/>
-      <c r="AO3" s="102"/>
-      <c r="AP3" s="102"/>
-      <c r="AQ3" s="102"/>
-      <c r="AR3" s="102"/>
-      <c r="AS3" s="102"/>
-      <c r="AT3" s="102"/>
-      <c r="AU3" s="102"/>
-      <c r="AV3" s="102"/>
-      <c r="AW3" s="102"/>
-      <c r="AX3" s="102"/>
-      <c r="AY3" s="102"/>
-      <c r="AZ3" s="102"/>
-      <c r="BA3" s="102"/>
-      <c r="BB3" s="102"/>
-      <c r="BC3" s="102"/>
-      <c r="BD3" s="102"/>
-      <c r="BE3" s="102"/>
-      <c r="BF3" s="102"/>
-      <c r="BG3" s="102"/>
-      <c r="BH3" s="102"/>
-      <c r="BI3" s="102"/>
-      <c r="BJ3" s="102"/>
-      <c r="BK3" s="102"/>
-      <c r="BL3" s="102"/>
-      <c r="BM3" s="102"/>
-      <c r="BN3" s="102"/>
-      <c r="BO3" s="102"/>
-      <c r="BP3" s="102"/>
-      <c r="BQ3" s="102"/>
-      <c r="BR3" s="102"/>
-      <c r="BS3" s="102"/>
-      <c r="BT3" s="102"/>
-      <c r="BU3" s="102"/>
-      <c r="BV3" s="102"/>
-      <c r="BW3" s="102"/>
-      <c r="BX3" s="102"/>
-      <c r="BY3" s="102"/>
-      <c r="BZ3" s="102"/>
-      <c r="CA3" s="102"/>
-      <c r="CB3" s="102"/>
-      <c r="CC3" s="102"/>
-      <c r="CD3" s="102"/>
-      <c r="CE3" s="102"/>
-      <c r="CF3" s="102"/>
-      <c r="CG3" s="102"/>
-      <c r="CH3" s="102"/>
-      <c r="CI3" s="102"/>
-      <c r="CJ3" s="102"/>
-      <c r="CK3" s="102"/>
-      <c r="CL3" s="102"/>
-      <c r="CM3" s="102"/>
-      <c r="CN3" s="102"/>
-      <c r="CO3" s="102"/>
-      <c r="CP3" s="102"/>
-      <c r="CQ3" s="102"/>
-      <c r="CR3" s="102"/>
-      <c r="CS3" s="102"/>
-      <c r="CT3" s="102"/>
-      <c r="CU3" s="102"/>
-      <c r="CV3" s="102"/>
-      <c r="CW3" s="102"/>
-      <c r="CX3" s="102"/>
-      <c r="CY3" s="102"/>
-      <c r="CZ3" s="102"/>
-      <c r="DA3" s="102"/>
-      <c r="DB3" s="102"/>
-      <c r="DC3" s="102"/>
-      <c r="DD3" s="102"/>
-      <c r="DE3" s="102"/>
-      <c r="DF3" s="102"/>
-      <c r="DG3" s="102"/>
-      <c r="DH3" s="102"/>
-      <c r="DI3" s="102"/>
-      <c r="DJ3" s="102"/>
-      <c r="DK3" s="102"/>
-      <c r="DL3" s="102"/>
-      <c r="DM3" s="102"/>
-      <c r="DN3" s="103"/>
+      <c r="T3" s="100"/>
+      <c r="U3" s="100"/>
+      <c r="V3" s="100"/>
+      <c r="W3" s="100"/>
+      <c r="X3" s="100"/>
+      <c r="Y3" s="100"/>
+      <c r="Z3" s="100"/>
+      <c r="AA3" s="100"/>
+      <c r="AB3" s="100"/>
+      <c r="AC3" s="100"/>
+      <c r="AD3" s="100"/>
+      <c r="AE3" s="100"/>
+      <c r="AF3" s="100"/>
+      <c r="AG3" s="100"/>
+      <c r="AH3" s="100"/>
+      <c r="AI3" s="100"/>
+      <c r="AJ3" s="100"/>
+      <c r="AK3" s="100"/>
+      <c r="AL3" s="100"/>
+      <c r="AM3" s="100"/>
+      <c r="AN3" s="100"/>
+      <c r="AO3" s="100"/>
+      <c r="AP3" s="100"/>
+      <c r="AQ3" s="100"/>
+      <c r="AR3" s="100"/>
+      <c r="AS3" s="100"/>
+      <c r="AT3" s="100"/>
+      <c r="AU3" s="100"/>
+      <c r="AV3" s="100"/>
+      <c r="AW3" s="100"/>
+      <c r="AX3" s="100"/>
+      <c r="AY3" s="100"/>
+      <c r="AZ3" s="100"/>
+      <c r="BA3" s="100"/>
+      <c r="BB3" s="100"/>
+      <c r="BC3" s="100"/>
+      <c r="BD3" s="100"/>
+      <c r="BE3" s="100"/>
+      <c r="BF3" s="100"/>
+      <c r="BG3" s="100"/>
+      <c r="BH3" s="100"/>
+      <c r="BI3" s="100"/>
+      <c r="BJ3" s="100"/>
+      <c r="BK3" s="100"/>
+      <c r="BL3" s="100"/>
+      <c r="BM3" s="100"/>
+      <c r="BN3" s="100"/>
+      <c r="BO3" s="100"/>
+      <c r="BP3" s="100"/>
+      <c r="BQ3" s="100"/>
+      <c r="BR3" s="100"/>
+      <c r="BS3" s="100"/>
+      <c r="BT3" s="100"/>
+      <c r="BU3" s="100"/>
+      <c r="BV3" s="100"/>
+      <c r="BW3" s="100"/>
+      <c r="BX3" s="100"/>
+      <c r="BY3" s="100"/>
+      <c r="BZ3" s="100"/>
+      <c r="CA3" s="100"/>
+      <c r="CB3" s="100"/>
+      <c r="CC3" s="100"/>
+      <c r="CD3" s="100"/>
+      <c r="CE3" s="100"/>
+      <c r="CF3" s="100"/>
+      <c r="CG3" s="100"/>
+      <c r="CH3" s="100"/>
+      <c r="CI3" s="100"/>
+      <c r="CJ3" s="100"/>
+      <c r="CK3" s="100"/>
+      <c r="CL3" s="100"/>
+      <c r="CM3" s="100"/>
+      <c r="CN3" s="100"/>
+      <c r="CO3" s="100"/>
+      <c r="CP3" s="100"/>
+      <c r="CQ3" s="100"/>
+      <c r="CR3" s="100"/>
+      <c r="CS3" s="100"/>
+      <c r="CT3" s="100"/>
+      <c r="CU3" s="100"/>
+      <c r="CV3" s="100"/>
+      <c r="CW3" s="100"/>
+      <c r="CX3" s="100"/>
+      <c r="CY3" s="100"/>
+      <c r="CZ3" s="100"/>
+      <c r="DA3" s="100"/>
+      <c r="DB3" s="100"/>
+      <c r="DC3" s="100"/>
+      <c r="DD3" s="100"/>
+      <c r="DE3" s="100"/>
+      <c r="DF3" s="100"/>
+      <c r="DG3" s="100"/>
+      <c r="DH3" s="100"/>
+      <c r="DI3" s="100"/>
+      <c r="DJ3" s="100"/>
+      <c r="DK3" s="100"/>
+      <c r="DL3" s="100"/>
+      <c r="DM3" s="100"/>
+      <c r="DN3" s="101"/>
     </row>
     <row r="4" spans="2:118" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="104" t="s">
-        <v>27</v>
+      <c r="B4" s="102" t="s">
+        <v>38</v>
       </c>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="106"/>
-      <c r="F4" s="104" t="s">
+      <c r="C4" s="103"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="105"/>
-      <c r="H4" s="105"/>
-      <c r="I4" s="106"/>
-      <c r="J4" s="104" t="s">
+      <c r="F4" s="103"/>
+      <c r="G4" s="103"/>
+      <c r="H4" s="103"/>
+      <c r="I4" s="104"/>
+      <c r="J4" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="106"/>
-      <c r="L4" s="107" t="s">
+      <c r="K4" s="104"/>
+      <c r="L4" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="108"/>
-      <c r="N4" s="108"/>
-      <c r="O4" s="108"/>
-      <c r="P4" s="108"/>
-      <c r="Q4" s="109"/>
-      <c r="R4" s="79" t="s">
+      <c r="M4" s="106"/>
+      <c r="N4" s="106"/>
+      <c r="O4" s="106"/>
+      <c r="P4" s="106"/>
+      <c r="Q4" s="107"/>
+      <c r="R4" s="77" t="s">
         <v>26</v>
       </c>
       <c r="S4" s="25"/>
@@ -2178,35 +2190,35 @@
       <c r="DN4" s="27"/>
     </row>
     <row r="5" spans="2:118" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="75" t="s">
+      <c r="B5" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="76" t="s">
+      <c r="C5" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="77" t="s">
+      <c r="D5" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="74" t="s">
+      <c r="E5" s="113" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="110" t="s">
+      <c r="F5" s="109" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="78" t="s">
+      <c r="G5" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="78" t="s">
+      <c r="H5" s="76" t="s">
         <v>21</v>
       </c>
       <c r="I5" s="71" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J5" s="72" t="s">
         <v>19</v>
       </c>
       <c r="K5" s="73" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L5" s="69" t="s">
         <v>12</v>
@@ -2226,7 +2238,7 @@
       <c r="Q5" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="R5" s="80" t="s">
+      <c r="R5" s="78" t="s">
         <v>8</v>
       </c>
       <c r="S5" s="28"/>
@@ -2333,21 +2345,21 @@
     <row r="6" spans="2:118" x14ac:dyDescent="0.25">
       <c r="B6" s="52"/>
       <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="52"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="110"/>
       <c r="G6" s="53"/>
       <c r="H6" s="53"/>
       <c r="I6" s="54"/>
       <c r="J6" s="52"/>
-      <c r="K6" s="82"/>
+      <c r="K6" s="80"/>
       <c r="L6" s="58"/>
       <c r="M6" s="55"/>
       <c r="N6" s="61"/>
       <c r="O6" s="55"/>
       <c r="P6" s="61"/>
       <c r="Q6" s="56"/>
-      <c r="R6" s="88"/>
+      <c r="R6" s="86"/>
       <c r="S6" s="46"/>
       <c r="T6" s="31"/>
       <c r="U6" s="31"/>
@@ -2452,21 +2464,21 @@
     <row r="7" spans="2:118" x14ac:dyDescent="0.25">
       <c r="B7" s="33"/>
       <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="33"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="111"/>
       <c r="G7" s="34"/>
       <c r="H7" s="34"/>
       <c r="I7" s="35"/>
       <c r="J7" s="33"/>
-      <c r="K7" s="83"/>
+      <c r="K7" s="81"/>
       <c r="L7" s="59"/>
       <c r="M7" s="48"/>
       <c r="N7" s="62"/>
       <c r="O7" s="48"/>
       <c r="P7" s="62"/>
       <c r="Q7" s="42"/>
-      <c r="R7" s="88"/>
+      <c r="R7" s="86"/>
       <c r="S7" s="47"/>
       <c r="T7" s="36"/>
       <c r="U7" s="36"/>
@@ -2571,21 +2583,21 @@
     <row r="8" spans="2:118" x14ac:dyDescent="0.25">
       <c r="B8" s="33"/>
       <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="33"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="111"/>
       <c r="G8" s="34"/>
       <c r="H8" s="34"/>
       <c r="I8" s="35"/>
       <c r="J8" s="33"/>
-      <c r="K8" s="83"/>
+      <c r="K8" s="81"/>
       <c r="L8" s="59"/>
       <c r="M8" s="48"/>
       <c r="N8" s="62"/>
       <c r="O8" s="48"/>
       <c r="P8" s="62"/>
       <c r="Q8" s="42"/>
-      <c r="R8" s="88"/>
+      <c r="R8" s="86"/>
       <c r="S8" s="47"/>
       <c r="T8" s="36"/>
       <c r="U8" s="36"/>
@@ -2690,21 +2702,21 @@
     <row r="9" spans="2:118" x14ac:dyDescent="0.25">
       <c r="B9" s="33"/>
       <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="33"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="111"/>
       <c r="G9" s="34"/>
       <c r="H9" s="34"/>
       <c r="I9" s="35"/>
       <c r="J9" s="33"/>
-      <c r="K9" s="83"/>
+      <c r="K9" s="81"/>
       <c r="L9" s="59"/>
       <c r="M9" s="48"/>
       <c r="N9" s="62"/>
       <c r="O9" s="48"/>
       <c r="P9" s="62"/>
       <c r="Q9" s="42"/>
-      <c r="R9" s="88"/>
+      <c r="R9" s="86"/>
       <c r="S9" s="47"/>
       <c r="T9" s="36"/>
       <c r="U9" s="36"/>
@@ -2809,21 +2821,21 @@
     <row r="10" spans="2:118" x14ac:dyDescent="0.25">
       <c r="B10" s="33"/>
       <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="33"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="111"/>
       <c r="G10" s="34"/>
       <c r="H10" s="34"/>
       <c r="I10" s="35"/>
       <c r="J10" s="33"/>
-      <c r="K10" s="83"/>
+      <c r="K10" s="81"/>
       <c r="L10" s="59"/>
       <c r="M10" s="48"/>
       <c r="N10" s="62"/>
       <c r="O10" s="48"/>
       <c r="P10" s="62"/>
       <c r="Q10" s="42"/>
-      <c r="R10" s="88"/>
+      <c r="R10" s="86"/>
       <c r="S10" s="47"/>
       <c r="T10" s="36"/>
       <c r="U10" s="36"/>
@@ -2928,21 +2940,21 @@
     <row r="11" spans="2:118" x14ac:dyDescent="0.25">
       <c r="B11" s="33"/>
       <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="33"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="111"/>
       <c r="G11" s="34"/>
       <c r="H11" s="34"/>
       <c r="I11" s="35"/>
       <c r="J11" s="33"/>
-      <c r="K11" s="83"/>
+      <c r="K11" s="81"/>
       <c r="L11" s="59"/>
       <c r="M11" s="48"/>
       <c r="N11" s="62"/>
       <c r="O11" s="48"/>
       <c r="P11" s="62"/>
       <c r="Q11" s="42"/>
-      <c r="R11" s="88"/>
+      <c r="R11" s="86"/>
       <c r="S11" s="47"/>
       <c r="T11" s="36"/>
       <c r="U11" s="36"/>
@@ -3047,21 +3059,21 @@
     <row r="12" spans="2:118" x14ac:dyDescent="0.25">
       <c r="B12" s="33"/>
       <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="33"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="111"/>
       <c r="G12" s="34"/>
       <c r="H12" s="34"/>
       <c r="I12" s="35"/>
       <c r="J12" s="33"/>
-      <c r="K12" s="83"/>
+      <c r="K12" s="81"/>
       <c r="L12" s="59"/>
       <c r="M12" s="48"/>
       <c r="N12" s="62"/>
       <c r="O12" s="48"/>
       <c r="P12" s="62"/>
       <c r="Q12" s="42"/>
-      <c r="R12" s="88"/>
+      <c r="R12" s="86"/>
       <c r="S12" s="47"/>
       <c r="T12" s="36"/>
       <c r="U12" s="36"/>
@@ -3166,21 +3178,21 @@
     <row r="13" spans="2:118" x14ac:dyDescent="0.25">
       <c r="B13" s="33"/>
       <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="33"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="111"/>
       <c r="G13" s="34"/>
       <c r="H13" s="34"/>
       <c r="I13" s="35"/>
       <c r="J13" s="33"/>
-      <c r="K13" s="83"/>
+      <c r="K13" s="81"/>
       <c r="L13" s="59"/>
       <c r="M13" s="48"/>
       <c r="N13" s="62"/>
       <c r="O13" s="48"/>
       <c r="P13" s="62"/>
       <c r="Q13" s="42"/>
-      <c r="R13" s="88"/>
+      <c r="R13" s="86"/>
       <c r="S13" s="47"/>
       <c r="T13" s="36"/>
       <c r="U13" s="36"/>
@@ -3285,21 +3297,21 @@
     <row r="14" spans="2:118" x14ac:dyDescent="0.25">
       <c r="B14" s="33"/>
       <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="33"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="111"/>
       <c r="G14" s="34"/>
       <c r="H14" s="34"/>
       <c r="I14" s="35"/>
       <c r="J14" s="33"/>
-      <c r="K14" s="83"/>
+      <c r="K14" s="81"/>
       <c r="L14" s="59"/>
       <c r="M14" s="48"/>
       <c r="N14" s="62"/>
       <c r="O14" s="48"/>
       <c r="P14" s="62"/>
       <c r="Q14" s="42"/>
-      <c r="R14" s="88"/>
+      <c r="R14" s="86"/>
       <c r="S14" s="47"/>
       <c r="T14" s="36"/>
       <c r="U14" s="36"/>
@@ -3404,21 +3416,21 @@
     <row r="15" spans="2:118" x14ac:dyDescent="0.25">
       <c r="B15" s="33"/>
       <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="33"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="111"/>
       <c r="G15" s="34"/>
       <c r="H15" s="34"/>
       <c r="I15" s="35"/>
       <c r="J15" s="33"/>
-      <c r="K15" s="83"/>
+      <c r="K15" s="81"/>
       <c r="L15" s="59"/>
       <c r="M15" s="48"/>
       <c r="N15" s="62"/>
       <c r="O15" s="48"/>
       <c r="P15" s="62"/>
       <c r="Q15" s="42"/>
-      <c r="R15" s="88"/>
+      <c r="R15" s="86"/>
       <c r="S15" s="47"/>
       <c r="T15" s="36"/>
       <c r="U15" s="36"/>
@@ -3523,21 +3535,21 @@
     <row r="16" spans="2:118" x14ac:dyDescent="0.25">
       <c r="B16" s="33"/>
       <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="33"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="111"/>
       <c r="G16" s="34"/>
       <c r="H16" s="34"/>
       <c r="I16" s="35"/>
       <c r="J16" s="33"/>
-      <c r="K16" s="83"/>
+      <c r="K16" s="81"/>
       <c r="L16" s="59"/>
       <c r="M16" s="48"/>
       <c r="N16" s="62"/>
       <c r="O16" s="48"/>
       <c r="P16" s="62"/>
       <c r="Q16" s="42"/>
-      <c r="R16" s="88"/>
+      <c r="R16" s="86"/>
       <c r="S16" s="47"/>
       <c r="T16" s="36"/>
       <c r="U16" s="36"/>
@@ -3642,21 +3654,21 @@
     <row r="17" spans="2:118" x14ac:dyDescent="0.25">
       <c r="B17" s="33"/>
       <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="33"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="111"/>
       <c r="G17" s="34"/>
       <c r="H17" s="34"/>
       <c r="I17" s="35"/>
       <c r="J17" s="33"/>
-      <c r="K17" s="83"/>
+      <c r="K17" s="81"/>
       <c r="L17" s="59"/>
       <c r="M17" s="48"/>
       <c r="N17" s="62"/>
       <c r="O17" s="48"/>
       <c r="P17" s="62"/>
       <c r="Q17" s="42"/>
-      <c r="R17" s="88"/>
+      <c r="R17" s="86"/>
       <c r="S17" s="47"/>
       <c r="T17" s="36"/>
       <c r="U17" s="36"/>
@@ -3761,21 +3773,21 @@
     <row r="18" spans="2:118" x14ac:dyDescent="0.25">
       <c r="B18" s="33"/>
       <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="33"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="111"/>
       <c r="G18" s="34"/>
       <c r="H18" s="34"/>
       <c r="I18" s="35"/>
       <c r="J18" s="33"/>
-      <c r="K18" s="83"/>
+      <c r="K18" s="81"/>
       <c r="L18" s="59"/>
       <c r="M18" s="48"/>
       <c r="N18" s="62"/>
       <c r="O18" s="48"/>
       <c r="P18" s="62"/>
       <c r="Q18" s="42"/>
-      <c r="R18" s="88"/>
+      <c r="R18" s="86"/>
       <c r="S18" s="47"/>
       <c r="T18" s="36"/>
       <c r="U18" s="36"/>
@@ -3880,21 +3892,21 @@
     <row r="19" spans="2:118" x14ac:dyDescent="0.25">
       <c r="B19" s="33"/>
       <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="33"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="111"/>
       <c r="G19" s="34"/>
       <c r="H19" s="34"/>
       <c r="I19" s="35"/>
       <c r="J19" s="33"/>
-      <c r="K19" s="83"/>
+      <c r="K19" s="81"/>
       <c r="L19" s="59"/>
       <c r="M19" s="48"/>
       <c r="N19" s="62"/>
       <c r="O19" s="48"/>
       <c r="P19" s="62"/>
       <c r="Q19" s="42"/>
-      <c r="R19" s="88"/>
+      <c r="R19" s="86"/>
       <c r="S19" s="47"/>
       <c r="T19" s="36"/>
       <c r="U19" s="36"/>
@@ -3999,21 +4011,21 @@
     <row r="20" spans="2:118" x14ac:dyDescent="0.25">
       <c r="B20" s="33"/>
       <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="33"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="111"/>
       <c r="G20" s="34"/>
       <c r="H20" s="34"/>
       <c r="I20" s="35"/>
       <c r="J20" s="33"/>
-      <c r="K20" s="83"/>
+      <c r="K20" s="81"/>
       <c r="L20" s="59"/>
       <c r="M20" s="48"/>
       <c r="N20" s="62"/>
       <c r="O20" s="48"/>
       <c r="P20" s="62"/>
       <c r="Q20" s="42"/>
-      <c r="R20" s="88"/>
+      <c r="R20" s="86"/>
       <c r="S20" s="47"/>
       <c r="T20" s="36"/>
       <c r="U20" s="36"/>
@@ -4118,21 +4130,21 @@
     <row r="21" spans="2:118" x14ac:dyDescent="0.25">
       <c r="B21" s="33"/>
       <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="33"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="111"/>
       <c r="G21" s="34"/>
       <c r="H21" s="34"/>
       <c r="I21" s="35"/>
       <c r="J21" s="33"/>
-      <c r="K21" s="83"/>
+      <c r="K21" s="81"/>
       <c r="L21" s="59"/>
       <c r="M21" s="48"/>
       <c r="N21" s="62"/>
       <c r="O21" s="48"/>
       <c r="P21" s="62"/>
       <c r="Q21" s="42"/>
-      <c r="R21" s="88"/>
+      <c r="R21" s="86"/>
       <c r="S21" s="47"/>
       <c r="T21" s="36"/>
       <c r="U21" s="36"/>
@@ -4237,21 +4249,21 @@
     <row r="22" spans="2:118" x14ac:dyDescent="0.25">
       <c r="B22" s="33"/>
       <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="33"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="111"/>
       <c r="G22" s="34"/>
       <c r="H22" s="34"/>
       <c r="I22" s="35"/>
       <c r="J22" s="33"/>
-      <c r="K22" s="83"/>
+      <c r="K22" s="81"/>
       <c r="L22" s="59"/>
       <c r="M22" s="48"/>
       <c r="N22" s="62"/>
       <c r="O22" s="48"/>
       <c r="P22" s="62"/>
       <c r="Q22" s="42"/>
-      <c r="R22" s="88"/>
+      <c r="R22" s="86"/>
       <c r="S22" s="47"/>
       <c r="T22" s="36"/>
       <c r="U22" s="36"/>
@@ -4356,21 +4368,21 @@
     <row r="23" spans="2:118" x14ac:dyDescent="0.25">
       <c r="B23" s="33"/>
       <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="33"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="111"/>
       <c r="G23" s="34"/>
       <c r="H23" s="34"/>
       <c r="I23" s="35"/>
       <c r="J23" s="33"/>
-      <c r="K23" s="83"/>
+      <c r="K23" s="81"/>
       <c r="L23" s="59"/>
       <c r="M23" s="48"/>
       <c r="N23" s="62"/>
       <c r="O23" s="48"/>
       <c r="P23" s="62"/>
       <c r="Q23" s="42"/>
-      <c r="R23" s="88"/>
+      <c r="R23" s="86"/>
       <c r="S23" s="47"/>
       <c r="T23" s="36"/>
       <c r="U23" s="36"/>
@@ -4475,21 +4487,21 @@
     <row r="24" spans="2:118" x14ac:dyDescent="0.25">
       <c r="B24" s="33"/>
       <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="33"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="111"/>
       <c r="G24" s="34"/>
       <c r="H24" s="34"/>
       <c r="I24" s="35"/>
       <c r="J24" s="33"/>
-      <c r="K24" s="83"/>
+      <c r="K24" s="81"/>
       <c r="L24" s="59"/>
       <c r="M24" s="48"/>
       <c r="N24" s="62"/>
       <c r="O24" s="48"/>
       <c r="P24" s="62"/>
       <c r="Q24" s="42"/>
-      <c r="R24" s="88"/>
+      <c r="R24" s="86"/>
       <c r="S24" s="47"/>
       <c r="T24" s="36"/>
       <c r="U24" s="36"/>
@@ -4594,21 +4606,21 @@
     <row r="25" spans="2:118" x14ac:dyDescent="0.25">
       <c r="B25" s="33"/>
       <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="33"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="111"/>
       <c r="G25" s="34"/>
       <c r="H25" s="34"/>
       <c r="I25" s="35"/>
       <c r="J25" s="33"/>
-      <c r="K25" s="83"/>
+      <c r="K25" s="81"/>
       <c r="L25" s="59"/>
       <c r="M25" s="48"/>
       <c r="N25" s="62"/>
       <c r="O25" s="48"/>
       <c r="P25" s="62"/>
       <c r="Q25" s="42"/>
-      <c r="R25" s="88"/>
+      <c r="R25" s="86"/>
       <c r="S25" s="47"/>
       <c r="T25" s="36"/>
       <c r="U25" s="36"/>
@@ -4713,21 +4725,21 @@
     <row r="26" spans="2:118" x14ac:dyDescent="0.25">
       <c r="B26" s="33"/>
       <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="33"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="111"/>
       <c r="G26" s="34"/>
       <c r="H26" s="34"/>
       <c r="I26" s="35"/>
       <c r="J26" s="33"/>
-      <c r="K26" s="83"/>
+      <c r="K26" s="81"/>
       <c r="L26" s="59"/>
       <c r="M26" s="48"/>
       <c r="N26" s="62"/>
       <c r="O26" s="48"/>
       <c r="P26" s="62"/>
       <c r="Q26" s="42"/>
-      <c r="R26" s="88"/>
+      <c r="R26" s="86"/>
       <c r="S26" s="47"/>
       <c r="T26" s="36"/>
       <c r="U26" s="36"/>
@@ -4832,21 +4844,21 @@
     <row r="27" spans="2:118" x14ac:dyDescent="0.25">
       <c r="B27" s="33"/>
       <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="33"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="111"/>
       <c r="G27" s="34"/>
       <c r="H27" s="34"/>
       <c r="I27" s="35"/>
       <c r="J27" s="33"/>
-      <c r="K27" s="83"/>
+      <c r="K27" s="81"/>
       <c r="L27" s="59"/>
       <c r="M27" s="48"/>
       <c r="N27" s="62"/>
       <c r="O27" s="48"/>
       <c r="P27" s="62"/>
       <c r="Q27" s="42"/>
-      <c r="R27" s="88"/>
+      <c r="R27" s="86"/>
       <c r="S27" s="47"/>
       <c r="T27" s="36"/>
       <c r="U27" s="36"/>
@@ -4951,21 +4963,21 @@
     <row r="28" spans="2:118" x14ac:dyDescent="0.25">
       <c r="B28" s="33"/>
       <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="33"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="111"/>
       <c r="G28" s="34"/>
       <c r="H28" s="34"/>
       <c r="I28" s="35"/>
       <c r="J28" s="33"/>
-      <c r="K28" s="83"/>
+      <c r="K28" s="81"/>
       <c r="L28" s="59"/>
       <c r="M28" s="48"/>
       <c r="N28" s="62"/>
       <c r="O28" s="48"/>
       <c r="P28" s="62"/>
       <c r="Q28" s="42"/>
-      <c r="R28" s="88"/>
+      <c r="R28" s="86"/>
       <c r="S28" s="47"/>
       <c r="T28" s="36"/>
       <c r="U28" s="36"/>
@@ -5070,21 +5082,21 @@
     <row r="29" spans="2:118" x14ac:dyDescent="0.25">
       <c r="B29" s="33"/>
       <c r="C29" s="34"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="33"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="111"/>
       <c r="G29" s="34"/>
       <c r="H29" s="34"/>
       <c r="I29" s="35"/>
       <c r="J29" s="33"/>
-      <c r="K29" s="83"/>
+      <c r="K29" s="81"/>
       <c r="L29" s="59"/>
       <c r="M29" s="48"/>
       <c r="N29" s="62"/>
       <c r="O29" s="48"/>
       <c r="P29" s="62"/>
       <c r="Q29" s="42"/>
-      <c r="R29" s="88"/>
+      <c r="R29" s="86"/>
       <c r="S29" s="47"/>
       <c r="T29" s="36"/>
       <c r="U29" s="36"/>
@@ -5189,21 +5201,21 @@
     <row r="30" spans="2:118" x14ac:dyDescent="0.25">
       <c r="B30" s="33"/>
       <c r="C30" s="34"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="33"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="111"/>
       <c r="G30" s="34"/>
       <c r="H30" s="34"/>
       <c r="I30" s="35"/>
       <c r="J30" s="33"/>
-      <c r="K30" s="83"/>
+      <c r="K30" s="81"/>
       <c r="L30" s="59"/>
       <c r="M30" s="48"/>
       <c r="N30" s="62"/>
       <c r="O30" s="48"/>
       <c r="P30" s="62"/>
       <c r="Q30" s="42"/>
-      <c r="R30" s="88"/>
+      <c r="R30" s="86"/>
       <c r="S30" s="47"/>
       <c r="T30" s="36"/>
       <c r="U30" s="36"/>
@@ -5308,21 +5320,21 @@
     <row r="31" spans="2:118" x14ac:dyDescent="0.25">
       <c r="B31" s="33"/>
       <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="33"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="111"/>
       <c r="G31" s="34"/>
       <c r="H31" s="34"/>
       <c r="I31" s="35"/>
       <c r="J31" s="33"/>
-      <c r="K31" s="83"/>
+      <c r="K31" s="81"/>
       <c r="L31" s="59"/>
       <c r="M31" s="48"/>
       <c r="N31" s="62"/>
       <c r="O31" s="48"/>
       <c r="P31" s="62"/>
       <c r="Q31" s="42"/>
-      <c r="R31" s="88"/>
+      <c r="R31" s="86"/>
       <c r="S31" s="47"/>
       <c r="T31" s="36"/>
       <c r="U31" s="36"/>
@@ -5427,21 +5439,21 @@
     <row r="32" spans="2:118" x14ac:dyDescent="0.25">
       <c r="B32" s="33"/>
       <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="33"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="111"/>
       <c r="G32" s="34"/>
       <c r="H32" s="34"/>
       <c r="I32" s="35"/>
       <c r="J32" s="33"/>
-      <c r="K32" s="83"/>
+      <c r="K32" s="81"/>
       <c r="L32" s="59"/>
       <c r="M32" s="48"/>
       <c r="N32" s="62"/>
       <c r="O32" s="48"/>
       <c r="P32" s="62"/>
       <c r="Q32" s="42"/>
-      <c r="R32" s="88"/>
+      <c r="R32" s="86"/>
       <c r="S32" s="47"/>
       <c r="T32" s="36"/>
       <c r="U32" s="36"/>
@@ -5546,21 +5558,21 @@
     <row r="33" spans="2:118" x14ac:dyDescent="0.25">
       <c r="B33" s="33"/>
       <c r="C33" s="34"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="33"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="111"/>
       <c r="G33" s="34"/>
       <c r="H33" s="34"/>
       <c r="I33" s="35"/>
       <c r="J33" s="33"/>
-      <c r="K33" s="83"/>
+      <c r="K33" s="81"/>
       <c r="L33" s="59"/>
       <c r="M33" s="48"/>
       <c r="N33" s="62"/>
       <c r="O33" s="48"/>
       <c r="P33" s="62"/>
       <c r="Q33" s="42"/>
-      <c r="R33" s="88"/>
+      <c r="R33" s="86"/>
       <c r="S33" s="47"/>
       <c r="T33" s="36"/>
       <c r="U33" s="36"/>
@@ -5665,21 +5677,21 @@
     <row r="34" spans="2:118" x14ac:dyDescent="0.25">
       <c r="B34" s="33"/>
       <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="33"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="111"/>
       <c r="G34" s="34"/>
       <c r="H34" s="34"/>
       <c r="I34" s="35"/>
       <c r="J34" s="33"/>
-      <c r="K34" s="83"/>
+      <c r="K34" s="81"/>
       <c r="L34" s="59"/>
       <c r="M34" s="48"/>
       <c r="N34" s="62"/>
       <c r="O34" s="48"/>
       <c r="P34" s="62"/>
       <c r="Q34" s="42"/>
-      <c r="R34" s="88"/>
+      <c r="R34" s="86"/>
       <c r="S34" s="47"/>
       <c r="T34" s="36"/>
       <c r="U34" s="36"/>
@@ -5784,21 +5796,21 @@
     <row r="35" spans="2:118" x14ac:dyDescent="0.25">
       <c r="B35" s="33"/>
       <c r="C35" s="34"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="33"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="111"/>
       <c r="G35" s="34"/>
       <c r="H35" s="34"/>
       <c r="I35" s="35"/>
       <c r="J35" s="33"/>
-      <c r="K35" s="83"/>
+      <c r="K35" s="81"/>
       <c r="L35" s="59"/>
       <c r="M35" s="48"/>
       <c r="N35" s="62"/>
       <c r="O35" s="48"/>
       <c r="P35" s="62"/>
       <c r="Q35" s="42"/>
-      <c r="R35" s="88"/>
+      <c r="R35" s="86"/>
       <c r="S35" s="47"/>
       <c r="T35" s="36"/>
       <c r="U35" s="36"/>
@@ -5903,21 +5915,21 @@
     <row r="36" spans="2:118" x14ac:dyDescent="0.25">
       <c r="B36" s="33"/>
       <c r="C36" s="34"/>
-      <c r="D36" s="34"/>
-      <c r="E36" s="35"/>
-      <c r="F36" s="33"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="111"/>
       <c r="G36" s="34"/>
       <c r="H36" s="34"/>
       <c r="I36" s="35"/>
       <c r="J36" s="33"/>
-      <c r="K36" s="83"/>
+      <c r="K36" s="81"/>
       <c r="L36" s="59"/>
       <c r="M36" s="48"/>
       <c r="N36" s="62"/>
       <c r="O36" s="48"/>
       <c r="P36" s="62"/>
       <c r="Q36" s="42"/>
-      <c r="R36" s="88"/>
+      <c r="R36" s="86"/>
       <c r="S36" s="47"/>
       <c r="T36" s="36"/>
       <c r="U36" s="36"/>
@@ -6022,21 +6034,21 @@
     <row r="37" spans="2:118" x14ac:dyDescent="0.25">
       <c r="B37" s="33"/>
       <c r="C37" s="34"/>
-      <c r="D37" s="34"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="33"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="111"/>
       <c r="G37" s="34"/>
       <c r="H37" s="34"/>
       <c r="I37" s="35"/>
       <c r="J37" s="33"/>
-      <c r="K37" s="83"/>
+      <c r="K37" s="81"/>
       <c r="L37" s="59"/>
       <c r="M37" s="48"/>
       <c r="N37" s="62"/>
       <c r="O37" s="48"/>
       <c r="P37" s="62"/>
       <c r="Q37" s="42"/>
-      <c r="R37" s="88"/>
+      <c r="R37" s="86"/>
       <c r="S37" s="47"/>
       <c r="T37" s="36"/>
       <c r="U37" s="36"/>
@@ -6141,21 +6153,21 @@
     <row r="38" spans="2:118" x14ac:dyDescent="0.25">
       <c r="B38" s="33"/>
       <c r="C38" s="34"/>
-      <c r="D38" s="34"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="33"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="111"/>
       <c r="G38" s="34"/>
       <c r="H38" s="34"/>
       <c r="I38" s="35"/>
       <c r="J38" s="33"/>
-      <c r="K38" s="83"/>
+      <c r="K38" s="81"/>
       <c r="L38" s="59"/>
       <c r="M38" s="48"/>
       <c r="N38" s="62"/>
       <c r="O38" s="48"/>
       <c r="P38" s="62"/>
       <c r="Q38" s="42"/>
-      <c r="R38" s="88"/>
+      <c r="R38" s="86"/>
       <c r="S38" s="47"/>
       <c r="T38" s="36"/>
       <c r="U38" s="36"/>
@@ -6260,21 +6272,21 @@
     <row r="39" spans="2:118" x14ac:dyDescent="0.25">
       <c r="B39" s="33"/>
       <c r="C39" s="34"/>
-      <c r="D39" s="34"/>
-      <c r="E39" s="35"/>
-      <c r="F39" s="33"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="111"/>
       <c r="G39" s="34"/>
       <c r="H39" s="34"/>
       <c r="I39" s="35"/>
       <c r="J39" s="33"/>
-      <c r="K39" s="83"/>
+      <c r="K39" s="81"/>
       <c r="L39" s="59"/>
       <c r="M39" s="48"/>
       <c r="N39" s="62"/>
       <c r="O39" s="48"/>
       <c r="P39" s="62"/>
       <c r="Q39" s="42"/>
-      <c r="R39" s="88"/>
+      <c r="R39" s="86"/>
       <c r="S39" s="47"/>
       <c r="T39" s="36"/>
       <c r="U39" s="36"/>
@@ -6379,21 +6391,21 @@
     <row r="40" spans="2:118" x14ac:dyDescent="0.25">
       <c r="B40" s="33"/>
       <c r="C40" s="34"/>
-      <c r="D40" s="34"/>
-      <c r="E40" s="35"/>
-      <c r="F40" s="33"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="111"/>
       <c r="G40" s="34"/>
       <c r="H40" s="34"/>
       <c r="I40" s="35"/>
       <c r="J40" s="33"/>
-      <c r="K40" s="83"/>
+      <c r="K40" s="81"/>
       <c r="L40" s="59"/>
       <c r="M40" s="48"/>
       <c r="N40" s="62"/>
       <c r="O40" s="48"/>
       <c r="P40" s="62"/>
       <c r="Q40" s="42"/>
-      <c r="R40" s="88"/>
+      <c r="R40" s="86"/>
       <c r="S40" s="47"/>
       <c r="T40" s="36"/>
       <c r="U40" s="36"/>
@@ -6498,21 +6510,21 @@
     <row r="41" spans="2:118" x14ac:dyDescent="0.25">
       <c r="B41" s="33"/>
       <c r="C41" s="34"/>
-      <c r="D41" s="34"/>
-      <c r="E41" s="35"/>
-      <c r="F41" s="33"/>
+      <c r="D41" s="35"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="111"/>
       <c r="G41" s="34"/>
       <c r="H41" s="34"/>
       <c r="I41" s="35"/>
       <c r="J41" s="33"/>
-      <c r="K41" s="83"/>
+      <c r="K41" s="81"/>
       <c r="L41" s="59"/>
       <c r="M41" s="48"/>
       <c r="N41" s="62"/>
       <c r="O41" s="48"/>
       <c r="P41" s="62"/>
       <c r="Q41" s="42"/>
-      <c r="R41" s="88"/>
+      <c r="R41" s="86"/>
       <c r="S41" s="47"/>
       <c r="T41" s="36"/>
       <c r="U41" s="36"/>
@@ -6617,21 +6629,21 @@
     <row r="42" spans="2:118" x14ac:dyDescent="0.25">
       <c r="B42" s="33"/>
       <c r="C42" s="34"/>
-      <c r="D42" s="34"/>
-      <c r="E42" s="35"/>
-      <c r="F42" s="33"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="33"/>
+      <c r="F42" s="111"/>
       <c r="G42" s="34"/>
       <c r="H42" s="34"/>
       <c r="I42" s="35"/>
       <c r="J42" s="33"/>
-      <c r="K42" s="83"/>
+      <c r="K42" s="81"/>
       <c r="L42" s="59"/>
       <c r="M42" s="48"/>
       <c r="N42" s="62"/>
       <c r="O42" s="48"/>
       <c r="P42" s="62"/>
       <c r="Q42" s="42"/>
-      <c r="R42" s="88"/>
+      <c r="R42" s="86"/>
       <c r="S42" s="47"/>
       <c r="T42" s="36"/>
       <c r="U42" s="36"/>
@@ -6736,21 +6748,21 @@
     <row r="43" spans="2:118" x14ac:dyDescent="0.25">
       <c r="B43" s="33"/>
       <c r="C43" s="34"/>
-      <c r="D43" s="34"/>
-      <c r="E43" s="35"/>
-      <c r="F43" s="33"/>
+      <c r="D43" s="35"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="111"/>
       <c r="G43" s="34"/>
       <c r="H43" s="34"/>
       <c r="I43" s="35"/>
       <c r="J43" s="33"/>
-      <c r="K43" s="83"/>
+      <c r="K43" s="81"/>
       <c r="L43" s="59"/>
       <c r="M43" s="48"/>
       <c r="N43" s="62"/>
       <c r="O43" s="48"/>
       <c r="P43" s="62"/>
       <c r="Q43" s="42"/>
-      <c r="R43" s="88"/>
+      <c r="R43" s="86"/>
       <c r="S43" s="47"/>
       <c r="T43" s="36"/>
       <c r="U43" s="36"/>
@@ -6855,21 +6867,21 @@
     <row r="44" spans="2:118" x14ac:dyDescent="0.25">
       <c r="B44" s="33"/>
       <c r="C44" s="34"/>
-      <c r="D44" s="34"/>
-      <c r="E44" s="35"/>
-      <c r="F44" s="33"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="33"/>
+      <c r="F44" s="111"/>
       <c r="G44" s="34"/>
       <c r="H44" s="34"/>
       <c r="I44" s="35"/>
       <c r="J44" s="33"/>
-      <c r="K44" s="83"/>
+      <c r="K44" s="81"/>
       <c r="L44" s="59"/>
       <c r="M44" s="48"/>
       <c r="N44" s="62"/>
       <c r="O44" s="48"/>
       <c r="P44" s="62"/>
       <c r="Q44" s="42"/>
-      <c r="R44" s="88"/>
+      <c r="R44" s="86"/>
       <c r="S44" s="47"/>
       <c r="T44" s="36"/>
       <c r="U44" s="36"/>
@@ -6974,21 +6986,21 @@
     <row r="45" spans="2:118" x14ac:dyDescent="0.25">
       <c r="B45" s="33"/>
       <c r="C45" s="34"/>
-      <c r="D45" s="34"/>
-      <c r="E45" s="35"/>
-      <c r="F45" s="33"/>
+      <c r="D45" s="35"/>
+      <c r="E45" s="33"/>
+      <c r="F45" s="111"/>
       <c r="G45" s="34"/>
       <c r="H45" s="34"/>
       <c r="I45" s="35"/>
       <c r="J45" s="33"/>
-      <c r="K45" s="83"/>
+      <c r="K45" s="81"/>
       <c r="L45" s="59"/>
       <c r="M45" s="48"/>
       <c r="N45" s="62"/>
       <c r="O45" s="48"/>
       <c r="P45" s="62"/>
       <c r="Q45" s="42"/>
-      <c r="R45" s="88"/>
+      <c r="R45" s="86"/>
       <c r="S45" s="47"/>
       <c r="T45" s="36"/>
       <c r="U45" s="36"/>
@@ -7093,21 +7105,21 @@
     <row r="46" spans="2:118" x14ac:dyDescent="0.25">
       <c r="B46" s="33"/>
       <c r="C46" s="34"/>
-      <c r="D46" s="34"/>
-      <c r="E46" s="35"/>
-      <c r="F46" s="33"/>
+      <c r="D46" s="35"/>
+      <c r="E46" s="33"/>
+      <c r="F46" s="111"/>
       <c r="G46" s="34"/>
       <c r="H46" s="34"/>
       <c r="I46" s="35"/>
       <c r="J46" s="33"/>
-      <c r="K46" s="83"/>
+      <c r="K46" s="81"/>
       <c r="L46" s="59"/>
       <c r="M46" s="48"/>
       <c r="N46" s="62"/>
       <c r="O46" s="48"/>
       <c r="P46" s="62"/>
       <c r="Q46" s="42"/>
-      <c r="R46" s="88"/>
+      <c r="R46" s="86"/>
       <c r="S46" s="47"/>
       <c r="T46" s="36"/>
       <c r="U46" s="36"/>
@@ -7212,21 +7224,21 @@
     <row r="47" spans="2:118" x14ac:dyDescent="0.25">
       <c r="B47" s="33"/>
       <c r="C47" s="34"/>
-      <c r="D47" s="34"/>
-      <c r="E47" s="35"/>
-      <c r="F47" s="33"/>
+      <c r="D47" s="35"/>
+      <c r="E47" s="33"/>
+      <c r="F47" s="111"/>
       <c r="G47" s="34"/>
       <c r="H47" s="34"/>
       <c r="I47" s="35"/>
       <c r="J47" s="33"/>
-      <c r="K47" s="83"/>
+      <c r="K47" s="81"/>
       <c r="L47" s="59"/>
       <c r="M47" s="48"/>
       <c r="N47" s="62"/>
       <c r="O47" s="48"/>
       <c r="P47" s="62"/>
       <c r="Q47" s="42"/>
-      <c r="R47" s="88"/>
+      <c r="R47" s="86"/>
       <c r="S47" s="47"/>
       <c r="T47" s="36"/>
       <c r="U47" s="36"/>
@@ -7331,21 +7343,21 @@
     <row r="48" spans="2:118" x14ac:dyDescent="0.25">
       <c r="B48" s="33"/>
       <c r="C48" s="34"/>
-      <c r="D48" s="34"/>
-      <c r="E48" s="35"/>
-      <c r="F48" s="33"/>
+      <c r="D48" s="35"/>
+      <c r="E48" s="33"/>
+      <c r="F48" s="111"/>
       <c r="G48" s="34"/>
       <c r="H48" s="34"/>
       <c r="I48" s="35"/>
       <c r="J48" s="33"/>
-      <c r="K48" s="83"/>
+      <c r="K48" s="81"/>
       <c r="L48" s="59"/>
       <c r="M48" s="48"/>
       <c r="N48" s="62"/>
       <c r="O48" s="48"/>
       <c r="P48" s="62"/>
       <c r="Q48" s="42"/>
-      <c r="R48" s="88"/>
+      <c r="R48" s="86"/>
       <c r="S48" s="47"/>
       <c r="T48" s="36"/>
       <c r="U48" s="36"/>
@@ -7450,21 +7462,21 @@
     <row r="49" spans="2:118" x14ac:dyDescent="0.25">
       <c r="B49" s="33"/>
       <c r="C49" s="34"/>
-      <c r="D49" s="34"/>
-      <c r="E49" s="35"/>
-      <c r="F49" s="33"/>
+      <c r="D49" s="35"/>
+      <c r="E49" s="33"/>
+      <c r="F49" s="111"/>
       <c r="G49" s="34"/>
       <c r="H49" s="34"/>
       <c r="I49" s="35"/>
       <c r="J49" s="33"/>
-      <c r="K49" s="83"/>
+      <c r="K49" s="81"/>
       <c r="L49" s="59"/>
       <c r="M49" s="48"/>
       <c r="N49" s="62"/>
       <c r="O49" s="48"/>
       <c r="P49" s="62"/>
       <c r="Q49" s="42"/>
-      <c r="R49" s="88"/>
+      <c r="R49" s="86"/>
       <c r="S49" s="47"/>
       <c r="T49" s="36"/>
       <c r="U49" s="36"/>
@@ -7569,21 +7581,21 @@
     <row r="50" spans="2:118" x14ac:dyDescent="0.25">
       <c r="B50" s="33"/>
       <c r="C50" s="34"/>
-      <c r="D50" s="34"/>
-      <c r="E50" s="35"/>
-      <c r="F50" s="33"/>
+      <c r="D50" s="35"/>
+      <c r="E50" s="33"/>
+      <c r="F50" s="111"/>
       <c r="G50" s="34"/>
       <c r="H50" s="34"/>
       <c r="I50" s="35"/>
       <c r="J50" s="33"/>
-      <c r="K50" s="83"/>
+      <c r="K50" s="81"/>
       <c r="L50" s="59"/>
       <c r="M50" s="48"/>
       <c r="N50" s="62"/>
       <c r="O50" s="48"/>
       <c r="P50" s="62"/>
       <c r="Q50" s="42"/>
-      <c r="R50" s="88"/>
+      <c r="R50" s="86"/>
       <c r="S50" s="47"/>
       <c r="T50" s="36"/>
       <c r="U50" s="36"/>
@@ -7688,21 +7700,21 @@
     <row r="51" spans="2:118" x14ac:dyDescent="0.25">
       <c r="B51" s="33"/>
       <c r="C51" s="34"/>
-      <c r="D51" s="34"/>
-      <c r="E51" s="35"/>
-      <c r="F51" s="33"/>
+      <c r="D51" s="35"/>
+      <c r="E51" s="33"/>
+      <c r="F51" s="111"/>
       <c r="G51" s="34"/>
       <c r="H51" s="34"/>
       <c r="I51" s="35"/>
       <c r="J51" s="33"/>
-      <c r="K51" s="83"/>
+      <c r="K51" s="81"/>
       <c r="L51" s="59"/>
       <c r="M51" s="48"/>
       <c r="N51" s="62"/>
       <c r="O51" s="48"/>
       <c r="P51" s="62"/>
       <c r="Q51" s="42"/>
-      <c r="R51" s="88"/>
+      <c r="R51" s="86"/>
       <c r="S51" s="47"/>
       <c r="T51" s="36"/>
       <c r="U51" s="36"/>
@@ -7807,21 +7819,21 @@
     <row r="52" spans="2:118" x14ac:dyDescent="0.25">
       <c r="B52" s="33"/>
       <c r="C52" s="34"/>
-      <c r="D52" s="34"/>
-      <c r="E52" s="35"/>
-      <c r="F52" s="33"/>
+      <c r="D52" s="35"/>
+      <c r="E52" s="33"/>
+      <c r="F52" s="111"/>
       <c r="G52" s="34"/>
       <c r="H52" s="34"/>
       <c r="I52" s="35"/>
       <c r="J52" s="33"/>
-      <c r="K52" s="83"/>
+      <c r="K52" s="81"/>
       <c r="L52" s="59"/>
       <c r="M52" s="48"/>
       <c r="N52" s="62"/>
       <c r="O52" s="48"/>
       <c r="P52" s="62"/>
       <c r="Q52" s="42"/>
-      <c r="R52" s="88"/>
+      <c r="R52" s="86"/>
       <c r="S52" s="47"/>
       <c r="T52" s="36"/>
       <c r="U52" s="36"/>
@@ -7926,21 +7938,21 @@
     <row r="53" spans="2:118" x14ac:dyDescent="0.25">
       <c r="B53" s="33"/>
       <c r="C53" s="34"/>
-      <c r="D53" s="34"/>
-      <c r="E53" s="35"/>
-      <c r="F53" s="33"/>
+      <c r="D53" s="35"/>
+      <c r="E53" s="33"/>
+      <c r="F53" s="111"/>
       <c r="G53" s="34"/>
       <c r="H53" s="34"/>
       <c r="I53" s="35"/>
       <c r="J53" s="33"/>
-      <c r="K53" s="83"/>
+      <c r="K53" s="81"/>
       <c r="L53" s="59"/>
       <c r="M53" s="48"/>
       <c r="N53" s="62"/>
       <c r="O53" s="48"/>
       <c r="P53" s="62"/>
       <c r="Q53" s="42"/>
-      <c r="R53" s="88"/>
+      <c r="R53" s="86"/>
       <c r="S53" s="47"/>
       <c r="T53" s="36"/>
       <c r="U53" s="36"/>
@@ -8045,21 +8057,21 @@
     <row r="54" spans="2:118" x14ac:dyDescent="0.25">
       <c r="B54" s="33"/>
       <c r="C54" s="34"/>
-      <c r="D54" s="34"/>
-      <c r="E54" s="35"/>
-      <c r="F54" s="33"/>
+      <c r="D54" s="35"/>
+      <c r="E54" s="33"/>
+      <c r="F54" s="111"/>
       <c r="G54" s="34"/>
       <c r="H54" s="34"/>
       <c r="I54" s="35"/>
       <c r="J54" s="33"/>
-      <c r="K54" s="83"/>
+      <c r="K54" s="81"/>
       <c r="L54" s="59"/>
       <c r="M54" s="48"/>
       <c r="N54" s="62"/>
       <c r="O54" s="48"/>
       <c r="P54" s="62"/>
       <c r="Q54" s="42"/>
-      <c r="R54" s="88"/>
+      <c r="R54" s="86"/>
       <c r="S54" s="47"/>
       <c r="T54" s="36"/>
       <c r="U54" s="36"/>
@@ -8164,21 +8176,21 @@
     <row r="55" spans="2:118" x14ac:dyDescent="0.25">
       <c r="B55" s="33"/>
       <c r="C55" s="34"/>
-      <c r="D55" s="34"/>
-      <c r="E55" s="35"/>
-      <c r="F55" s="33"/>
+      <c r="D55" s="35"/>
+      <c r="E55" s="33"/>
+      <c r="F55" s="111"/>
       <c r="G55" s="34"/>
       <c r="H55" s="34"/>
       <c r="I55" s="35"/>
       <c r="J55" s="33"/>
-      <c r="K55" s="83"/>
+      <c r="K55" s="81"/>
       <c r="L55" s="59"/>
       <c r="M55" s="48"/>
       <c r="N55" s="62"/>
       <c r="O55" s="48"/>
       <c r="P55" s="62"/>
       <c r="Q55" s="42"/>
-      <c r="R55" s="88"/>
+      <c r="R55" s="86"/>
       <c r="S55" s="47"/>
       <c r="T55" s="36"/>
       <c r="U55" s="36"/>
@@ -8281,7 +8293,7 @@
       <c r="DN55" s="37"/>
     </row>
     <row r="1048538" spans="19:118" x14ac:dyDescent="0.25">
-      <c r="S1048538" s="87"/>
+      <c r="S1048538" s="85"/>
       <c r="T1048538" s="48"/>
       <c r="U1048538" s="48"/>
       <c r="V1048538" s="48"/>
@@ -8380,10 +8392,10 @@
       <c r="DK1048538" s="48"/>
       <c r="DL1048538" s="48"/>
       <c r="DM1048538" s="48"/>
-      <c r="DN1048538" s="83"/>
+      <c r="DN1048538" s="81"/>
     </row>
     <row r="1048539" spans="19:118" x14ac:dyDescent="0.25">
-      <c r="S1048539" s="87"/>
+      <c r="S1048539" s="85"/>
       <c r="T1048539" s="48"/>
       <c r="U1048539" s="48"/>
       <c r="V1048539" s="48"/>
@@ -8482,10 +8494,10 @@
       <c r="DK1048539" s="48"/>
       <c r="DL1048539" s="48"/>
       <c r="DM1048539" s="48"/>
-      <c r="DN1048539" s="83"/>
+      <c r="DN1048539" s="81"/>
     </row>
     <row r="1048540" spans="19:118" x14ac:dyDescent="0.25">
-      <c r="S1048540" s="87"/>
+      <c r="S1048540" s="85"/>
       <c r="T1048540" s="48"/>
       <c r="U1048540" s="48"/>
       <c r="V1048540" s="48"/>
@@ -8584,10 +8596,10 @@
       <c r="DK1048540" s="48"/>
       <c r="DL1048540" s="48"/>
       <c r="DM1048540" s="48"/>
-      <c r="DN1048540" s="83"/>
+      <c r="DN1048540" s="81"/>
     </row>
     <row r="1048541" spans="19:118" x14ac:dyDescent="0.25">
-      <c r="S1048541" s="87"/>
+      <c r="S1048541" s="85"/>
       <c r="T1048541" s="48"/>
       <c r="U1048541" s="48"/>
       <c r="V1048541" s="48"/>
@@ -8686,10 +8698,10 @@
       <c r="DK1048541" s="48"/>
       <c r="DL1048541" s="48"/>
       <c r="DM1048541" s="48"/>
-      <c r="DN1048541" s="83"/>
+      <c r="DN1048541" s="81"/>
     </row>
     <row r="1048542" spans="19:118" x14ac:dyDescent="0.25">
-      <c r="S1048542" s="87"/>
+      <c r="S1048542" s="85"/>
       <c r="T1048542" s="48"/>
       <c r="U1048542" s="48"/>
       <c r="V1048542" s="48"/>
@@ -8788,10 +8800,10 @@
       <c r="DK1048542" s="48"/>
       <c r="DL1048542" s="48"/>
       <c r="DM1048542" s="48"/>
-      <c r="DN1048542" s="83"/>
+      <c r="DN1048542" s="81"/>
     </row>
     <row r="1048543" spans="19:118" x14ac:dyDescent="0.25">
-      <c r="S1048543" s="87"/>
+      <c r="S1048543" s="85"/>
       <c r="T1048543" s="48"/>
       <c r="U1048543" s="48"/>
       <c r="V1048543" s="48"/>
@@ -8890,10 +8902,10 @@
       <c r="DK1048543" s="48"/>
       <c r="DL1048543" s="48"/>
       <c r="DM1048543" s="48"/>
-      <c r="DN1048543" s="83"/>
+      <c r="DN1048543" s="81"/>
     </row>
     <row r="1048544" spans="19:118" x14ac:dyDescent="0.25">
-      <c r="S1048544" s="87"/>
+      <c r="S1048544" s="85"/>
       <c r="T1048544" s="48"/>
       <c r="U1048544" s="48"/>
       <c r="V1048544" s="48"/>
@@ -8992,10 +9004,10 @@
       <c r="DK1048544" s="48"/>
       <c r="DL1048544" s="48"/>
       <c r="DM1048544" s="48"/>
-      <c r="DN1048544" s="83"/>
+      <c r="DN1048544" s="81"/>
     </row>
     <row r="1048545" spans="19:118" x14ac:dyDescent="0.25">
-      <c r="S1048545" s="87"/>
+      <c r="S1048545" s="85"/>
       <c r="T1048545" s="48"/>
       <c r="U1048545" s="48"/>
       <c r="V1048545" s="48"/>
@@ -9094,10 +9106,10 @@
       <c r="DK1048545" s="48"/>
       <c r="DL1048545" s="48"/>
       <c r="DM1048545" s="48"/>
-      <c r="DN1048545" s="83"/>
+      <c r="DN1048545" s="81"/>
     </row>
     <row r="1048546" spans="19:118" x14ac:dyDescent="0.25">
-      <c r="S1048546" s="87"/>
+      <c r="S1048546" s="85"/>
       <c r="T1048546" s="48"/>
       <c r="U1048546" s="48"/>
       <c r="V1048546" s="48"/>
@@ -9196,10 +9208,10 @@
       <c r="DK1048546" s="48"/>
       <c r="DL1048546" s="48"/>
       <c r="DM1048546" s="48"/>
-      <c r="DN1048546" s="83"/>
+      <c r="DN1048546" s="81"/>
     </row>
     <row r="1048547" spans="19:118" x14ac:dyDescent="0.25">
-      <c r="S1048547" s="87"/>
+      <c r="S1048547" s="85"/>
       <c r="T1048547" s="48"/>
       <c r="U1048547" s="48"/>
       <c r="V1048547" s="48"/>
@@ -9298,10 +9310,10 @@
       <c r="DK1048547" s="48"/>
       <c r="DL1048547" s="48"/>
       <c r="DM1048547" s="48"/>
-      <c r="DN1048547" s="83"/>
+      <c r="DN1048547" s="81"/>
     </row>
     <row r="1048548" spans="19:118" x14ac:dyDescent="0.25">
-      <c r="S1048548" s="87"/>
+      <c r="S1048548" s="85"/>
       <c r="T1048548" s="48"/>
       <c r="U1048548" s="48"/>
       <c r="V1048548" s="48"/>
@@ -9400,10 +9412,10 @@
       <c r="DK1048548" s="48"/>
       <c r="DL1048548" s="48"/>
       <c r="DM1048548" s="48"/>
-      <c r="DN1048548" s="83"/>
+      <c r="DN1048548" s="81"/>
     </row>
     <row r="1048549" spans="19:118" x14ac:dyDescent="0.25">
-      <c r="S1048549" s="87"/>
+      <c r="S1048549" s="85"/>
       <c r="T1048549" s="48"/>
       <c r="U1048549" s="48"/>
       <c r="V1048549" s="48"/>
@@ -9502,10 +9514,10 @@
       <c r="DK1048549" s="48"/>
       <c r="DL1048549" s="48"/>
       <c r="DM1048549" s="48"/>
-      <c r="DN1048549" s="83"/>
+      <c r="DN1048549" s="81"/>
     </row>
     <row r="1048550" spans="19:118" x14ac:dyDescent="0.25">
-      <c r="S1048550" s="87"/>
+      <c r="S1048550" s="85"/>
       <c r="T1048550" s="48"/>
       <c r="U1048550" s="48"/>
       <c r="V1048550" s="48"/>
@@ -9604,10 +9616,10 @@
       <c r="DK1048550" s="48"/>
       <c r="DL1048550" s="48"/>
       <c r="DM1048550" s="48"/>
-      <c r="DN1048550" s="83"/>
+      <c r="DN1048550" s="81"/>
     </row>
     <row r="1048551" spans="19:118" x14ac:dyDescent="0.25">
-      <c r="S1048551" s="87"/>
+      <c r="S1048551" s="85"/>
       <c r="T1048551" s="48"/>
       <c r="U1048551" s="48"/>
       <c r="V1048551" s="48"/>
@@ -9706,10 +9718,10 @@
       <c r="DK1048551" s="48"/>
       <c r="DL1048551" s="48"/>
       <c r="DM1048551" s="48"/>
-      <c r="DN1048551" s="83"/>
+      <c r="DN1048551" s="81"/>
     </row>
     <row r="1048552" spans="19:118" x14ac:dyDescent="0.25">
-      <c r="S1048552" s="87"/>
+      <c r="S1048552" s="85"/>
       <c r="T1048552" s="48"/>
       <c r="U1048552" s="48"/>
       <c r="V1048552" s="48"/>
@@ -9808,10 +9820,10 @@
       <c r="DK1048552" s="48"/>
       <c r="DL1048552" s="48"/>
       <c r="DM1048552" s="48"/>
-      <c r="DN1048552" s="83"/>
+      <c r="DN1048552" s="81"/>
     </row>
     <row r="1048553" spans="19:118" x14ac:dyDescent="0.25">
-      <c r="S1048553" s="87"/>
+      <c r="S1048553" s="85"/>
       <c r="T1048553" s="48"/>
       <c r="U1048553" s="48"/>
       <c r="V1048553" s="48"/>
@@ -9910,10 +9922,10 @@
       <c r="DK1048553" s="48"/>
       <c r="DL1048553" s="48"/>
       <c r="DM1048553" s="48"/>
-      <c r="DN1048553" s="83"/>
+      <c r="DN1048553" s="81"/>
     </row>
     <row r="1048554" spans="19:118" x14ac:dyDescent="0.25">
-      <c r="S1048554" s="87"/>
+      <c r="S1048554" s="85"/>
       <c r="T1048554" s="48"/>
       <c r="U1048554" s="48"/>
       <c r="V1048554" s="48"/>
@@ -10012,10 +10024,10 @@
       <c r="DK1048554" s="48"/>
       <c r="DL1048554" s="48"/>
       <c r="DM1048554" s="48"/>
-      <c r="DN1048554" s="83"/>
+      <c r="DN1048554" s="81"/>
     </row>
     <row r="1048555" spans="19:118" x14ac:dyDescent="0.25">
-      <c r="S1048555" s="87"/>
+      <c r="S1048555" s="85"/>
       <c r="T1048555" s="48"/>
       <c r="U1048555" s="48"/>
       <c r="V1048555" s="48"/>
@@ -10114,10 +10126,10 @@
       <c r="DK1048555" s="48"/>
       <c r="DL1048555" s="48"/>
       <c r="DM1048555" s="48"/>
-      <c r="DN1048555" s="83"/>
+      <c r="DN1048555" s="81"/>
     </row>
     <row r="1048556" spans="19:118" x14ac:dyDescent="0.25">
-      <c r="S1048556" s="87"/>
+      <c r="S1048556" s="85"/>
       <c r="T1048556" s="48"/>
       <c r="U1048556" s="48"/>
       <c r="V1048556" s="48"/>
@@ -10216,10 +10228,10 @@
       <c r="DK1048556" s="48"/>
       <c r="DL1048556" s="48"/>
       <c r="DM1048556" s="48"/>
-      <c r="DN1048556" s="83"/>
+      <c r="DN1048556" s="81"/>
     </row>
     <row r="1048557" spans="19:118" x14ac:dyDescent="0.25">
-      <c r="S1048557" s="87"/>
+      <c r="S1048557" s="85"/>
       <c r="T1048557" s="48"/>
       <c r="U1048557" s="48"/>
       <c r="V1048557" s="48"/>
@@ -10318,10 +10330,10 @@
       <c r="DK1048557" s="48"/>
       <c r="DL1048557" s="48"/>
       <c r="DM1048557" s="48"/>
-      <c r="DN1048557" s="83"/>
+      <c r="DN1048557" s="81"/>
     </row>
     <row r="1048558" spans="19:118" x14ac:dyDescent="0.25">
-      <c r="S1048558" s="87"/>
+      <c r="S1048558" s="85"/>
       <c r="T1048558" s="48"/>
       <c r="U1048558" s="48"/>
       <c r="V1048558" s="48"/>
@@ -10420,10 +10432,10 @@
       <c r="DK1048558" s="48"/>
       <c r="DL1048558" s="48"/>
       <c r="DM1048558" s="48"/>
-      <c r="DN1048558" s="83"/>
+      <c r="DN1048558" s="81"/>
     </row>
     <row r="1048559" spans="19:118" x14ac:dyDescent="0.25">
-      <c r="S1048559" s="87"/>
+      <c r="S1048559" s="85"/>
       <c r="T1048559" s="48"/>
       <c r="U1048559" s="48"/>
       <c r="V1048559" s="48"/>
@@ -10522,10 +10534,10 @@
       <c r="DK1048559" s="48"/>
       <c r="DL1048559" s="48"/>
       <c r="DM1048559" s="48"/>
-      <c r="DN1048559" s="83"/>
+      <c r="DN1048559" s="81"/>
     </row>
     <row r="1048560" spans="19:118" x14ac:dyDescent="0.25">
-      <c r="S1048560" s="87"/>
+      <c r="S1048560" s="85"/>
       <c r="T1048560" s="48"/>
       <c r="U1048560" s="48"/>
       <c r="V1048560" s="48"/>
@@ -10624,10 +10636,10 @@
       <c r="DK1048560" s="48"/>
       <c r="DL1048560" s="48"/>
       <c r="DM1048560" s="48"/>
-      <c r="DN1048560" s="83"/>
+      <c r="DN1048560" s="81"/>
     </row>
     <row r="1048561" spans="18:118" x14ac:dyDescent="0.25">
-      <c r="S1048561" s="87"/>
+      <c r="S1048561" s="85"/>
       <c r="T1048561" s="48"/>
       <c r="U1048561" s="48"/>
       <c r="V1048561" s="48"/>
@@ -10726,10 +10738,10 @@
       <c r="DK1048561" s="48"/>
       <c r="DL1048561" s="48"/>
       <c r="DM1048561" s="48"/>
-      <c r="DN1048561" s="83"/>
+      <c r="DN1048561" s="81"/>
     </row>
     <row r="1048562" spans="18:118" x14ac:dyDescent="0.25">
-      <c r="S1048562" s="87"/>
+      <c r="S1048562" s="85"/>
       <c r="T1048562" s="48"/>
       <c r="U1048562" s="48"/>
       <c r="V1048562" s="48"/>
@@ -10828,10 +10840,10 @@
       <c r="DK1048562" s="48"/>
       <c r="DL1048562" s="48"/>
       <c r="DM1048562" s="48"/>
-      <c r="DN1048562" s="83"/>
+      <c r="DN1048562" s="81"/>
     </row>
     <row r="1048563" spans="18:118" x14ac:dyDescent="0.25">
-      <c r="S1048563" s="87"/>
+      <c r="S1048563" s="85"/>
       <c r="T1048563" s="48"/>
       <c r="U1048563" s="48"/>
       <c r="V1048563" s="48"/>
@@ -10930,10 +10942,10 @@
       <c r="DK1048563" s="48"/>
       <c r="DL1048563" s="48"/>
       <c r="DM1048563" s="48"/>
-      <c r="DN1048563" s="83"/>
+      <c r="DN1048563" s="81"/>
     </row>
     <row r="1048564" spans="18:118" x14ac:dyDescent="0.25">
-      <c r="S1048564" s="87"/>
+      <c r="S1048564" s="85"/>
       <c r="T1048564" s="48"/>
       <c r="U1048564" s="48"/>
       <c r="V1048564" s="48"/>
@@ -11032,10 +11044,10 @@
       <c r="DK1048564" s="48"/>
       <c r="DL1048564" s="48"/>
       <c r="DM1048564" s="48"/>
-      <c r="DN1048564" s="83"/>
+      <c r="DN1048564" s="81"/>
     </row>
     <row r="1048565" spans="18:118" x14ac:dyDescent="0.25">
-      <c r="S1048565" s="87"/>
+      <c r="S1048565" s="85"/>
       <c r="T1048565" s="48"/>
       <c r="U1048565" s="48"/>
       <c r="V1048565" s="48"/>
@@ -11134,10 +11146,10 @@
       <c r="DK1048565" s="48"/>
       <c r="DL1048565" s="48"/>
       <c r="DM1048565" s="48"/>
-      <c r="DN1048565" s="83"/>
+      <c r="DN1048565" s="81"/>
     </row>
     <row r="1048566" spans="18:118" x14ac:dyDescent="0.25">
-      <c r="S1048566" s="87"/>
+      <c r="S1048566" s="85"/>
       <c r="T1048566" s="48"/>
       <c r="U1048566" s="48"/>
       <c r="V1048566" s="48"/>
@@ -11236,10 +11248,10 @@
       <c r="DK1048566" s="48"/>
       <c r="DL1048566" s="48"/>
       <c r="DM1048566" s="48"/>
-      <c r="DN1048566" s="83"/>
+      <c r="DN1048566" s="81"/>
     </row>
     <row r="1048567" spans="18:118" x14ac:dyDescent="0.25">
-      <c r="S1048567" s="87"/>
+      <c r="S1048567" s="85"/>
       <c r="T1048567" s="48"/>
       <c r="U1048567" s="48"/>
       <c r="V1048567" s="48"/>
@@ -11338,10 +11350,10 @@
       <c r="DK1048567" s="48"/>
       <c r="DL1048567" s="48"/>
       <c r="DM1048567" s="48"/>
-      <c r="DN1048567" s="83"/>
+      <c r="DN1048567" s="81"/>
     </row>
     <row r="1048568" spans="18:118" x14ac:dyDescent="0.25">
-      <c r="S1048568" s="87"/>
+      <c r="S1048568" s="85"/>
       <c r="T1048568" s="48"/>
       <c r="U1048568" s="48"/>
       <c r="V1048568" s="48"/>
@@ -11440,10 +11452,10 @@
       <c r="DK1048568" s="48"/>
       <c r="DL1048568" s="48"/>
       <c r="DM1048568" s="48"/>
-      <c r="DN1048568" s="83"/>
+      <c r="DN1048568" s="81"/>
     </row>
     <row r="1048569" spans="18:118" x14ac:dyDescent="0.25">
-      <c r="S1048569" s="87"/>
+      <c r="S1048569" s="85"/>
       <c r="T1048569" s="48"/>
       <c r="U1048569" s="48"/>
       <c r="V1048569" s="48"/>
@@ -11542,10 +11554,10 @@
       <c r="DK1048569" s="48"/>
       <c r="DL1048569" s="48"/>
       <c r="DM1048569" s="48"/>
-      <c r="DN1048569" s="83"/>
+      <c r="DN1048569" s="81"/>
     </row>
     <row r="1048570" spans="18:118" x14ac:dyDescent="0.25">
-      <c r="S1048570" s="87"/>
+      <c r="S1048570" s="85"/>
       <c r="T1048570" s="48"/>
       <c r="U1048570" s="48"/>
       <c r="V1048570" s="48"/>
@@ -11644,10 +11656,10 @@
       <c r="DK1048570" s="48"/>
       <c r="DL1048570" s="48"/>
       <c r="DM1048570" s="48"/>
-      <c r="DN1048570" s="83"/>
+      <c r="DN1048570" s="81"/>
     </row>
     <row r="1048571" spans="18:118" x14ac:dyDescent="0.25">
-      <c r="S1048571" s="87"/>
+      <c r="S1048571" s="85"/>
       <c r="T1048571" s="48"/>
       <c r="U1048571" s="48"/>
       <c r="V1048571" s="48"/>
@@ -11746,10 +11758,10 @@
       <c r="DK1048571" s="48"/>
       <c r="DL1048571" s="48"/>
       <c r="DM1048571" s="48"/>
-      <c r="DN1048571" s="83"/>
+      <c r="DN1048571" s="81"/>
     </row>
     <row r="1048572" spans="18:118" x14ac:dyDescent="0.25">
-      <c r="S1048572" s="87"/>
+      <c r="S1048572" s="85"/>
       <c r="T1048572" s="48"/>
       <c r="U1048572" s="48"/>
       <c r="V1048572" s="48"/>
@@ -11848,10 +11860,10 @@
       <c r="DK1048572" s="48"/>
       <c r="DL1048572" s="48"/>
       <c r="DM1048572" s="48"/>
-      <c r="DN1048572" s="83"/>
+      <c r="DN1048572" s="81"/>
     </row>
     <row r="1048573" spans="18:118" x14ac:dyDescent="0.25">
-      <c r="S1048573" s="87"/>
+      <c r="S1048573" s="85"/>
       <c r="T1048573" s="48"/>
       <c r="U1048573" s="48"/>
       <c r="V1048573" s="48"/>
@@ -11950,10 +11962,10 @@
       <c r="DK1048573" s="48"/>
       <c r="DL1048573" s="48"/>
       <c r="DM1048573" s="48"/>
-      <c r="DN1048573" s="83"/>
+      <c r="DN1048573" s="81"/>
     </row>
     <row r="1048574" spans="18:118" x14ac:dyDescent="0.25">
-      <c r="S1048574" s="87"/>
+      <c r="S1048574" s="85"/>
       <c r="T1048574" s="48"/>
       <c r="U1048574" s="48"/>
       <c r="V1048574" s="48"/>
@@ -12052,10 +12064,10 @@
       <c r="DK1048574" s="48"/>
       <c r="DL1048574" s="48"/>
       <c r="DM1048574" s="48"/>
-      <c r="DN1048574" s="83"/>
+      <c r="DN1048574" s="81"/>
     </row>
     <row r="1048575" spans="18:118" x14ac:dyDescent="0.25">
-      <c r="S1048575" s="87"/>
+      <c r="S1048575" s="85"/>
       <c r="T1048575" s="48"/>
       <c r="U1048575" s="48"/>
       <c r="V1048575" s="48"/>
@@ -12154,11 +12166,11 @@
       <c r="DK1048575" s="48"/>
       <c r="DL1048575" s="48"/>
       <c r="DM1048575" s="48"/>
-      <c r="DN1048575" s="83"/>
+      <c r="DN1048575" s="81"/>
     </row>
     <row r="1048576" spans="18:118" x14ac:dyDescent="0.25">
-      <c r="R1048576" s="90"/>
-      <c r="S1048576" s="87"/>
+      <c r="R1048576" s="88"/>
+      <c r="S1048576" s="85"/>
       <c r="T1048576" s="48"/>
       <c r="U1048576" s="48"/>
       <c r="V1048576" s="48"/>
@@ -12257,17 +12269,17 @@
       <c r="DK1048576" s="48"/>
       <c r="DL1048576" s="48"/>
       <c r="DM1048576" s="48"/>
-      <c r="DN1048576" s="83"/>
+      <c r="DN1048576" s="81"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="vw6t14CPypNsSIifRN1oPg72zlxag3VTXFD/i2QnrsC+ULQdSspLVMiGCEGq4JVgryhhvE00BBPV+h6V535llw==" saltValue="d4X/Z3HFkURbqs6KBvLbNQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="UnqAqxn3Navgtn4/2sh5aSAmfdfNf9BjFtlt5szFArSxzEJIp8RiktfFee1oG69A7MnW07gQ3UqbrvE6zMPmmw==" saltValue="8WMYB6QGPih+HcIEQxWqIA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="6">
     <mergeCell ref="S3:DN3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:I4"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="L4:Q4"/>
     <mergeCell ref="B2:Q3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:I4"/>
   </mergeCells>
   <conditionalFormatting sqref="B6:Q1048576">
     <cfRule type="expression" dxfId="1" priority="2">

--- a/form_reporting_templates/Form-3CE.xlsx
+++ b/form_reporting_templates/Form-3CE.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\echassot\Desktop\iotc-reference-forms\form_reporting_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82641436-A6A5-477D-8EA0-E55604359236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69CB5144-E9A3-4F55-9F0E-E6A4D3D513F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="D/L7RJXD1bM7VSukp9nBPXamnS2mKwuV7VHnNS9bopG+/gy69KSPIxEDp2efAHIwM2oGVTU5uyDQpmk0iVlvLw==" workbookSaltValue="ZXtEfnD7/zBb2FnSisyo4w==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -38,9 +38,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
-  <si>
-    <t>Focal point</t>
-  </si>
   <si>
     <t>Name</t>
   </si>
@@ -155,14 +152,17 @@
   <si>
     <t>Main elements</t>
   </si>
+  <si>
+    <t>Liaison officer</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -789,10 +789,10 @@
   <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1073,6 +1073,10 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -1132,10 +1136,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1469,7 +1469,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC2D41B5-AC8B-4133-9C08-EAF515BF72F5}">
   <dimension ref="B1:H27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -1485,39 +1485,39 @@
   <sheetData>
     <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="98" t="s">
-        <v>35</v>
+      <c r="B2" s="99" t="s">
+        <v>34</v>
       </c>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="101"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="101"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="103"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="104"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
       <c r="C4" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H4" s="8"/>
     </row>
@@ -1533,7 +1533,7 @@
     <row r="6" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B6" s="9"/>
       <c r="C6" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
@@ -1552,26 +1552,26 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="9"/>
-      <c r="C8" s="97" t="s">
-        <v>0</v>
+      <c r="C8" s="98" t="s">
+        <v>38</v>
       </c>
-      <c r="D8" s="97"/>
+      <c r="D8" s="98"/>
       <c r="E8" s="10"/>
-      <c r="F8" s="97" t="s">
-        <v>30</v>
+      <c r="F8" s="98" t="s">
+        <v>29</v>
       </c>
-      <c r="G8" s="97"/>
+      <c r="G8" s="98"/>
       <c r="H8" s="11"/>
     </row>
     <row r="9" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="9"/>
       <c r="C9" s="13" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" s="23"/>
       <c r="E9" s="10"/>
       <c r="F9" s="13" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="23"/>
       <c r="H9" s="11"/>
@@ -1579,12 +1579,12 @@
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="9"/>
       <c r="C10" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10" s="23"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G10" s="23"/>
       <c r="H10" s="11"/>
@@ -1601,9 +1601,9 @@
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="9"/>
       <c r="C12" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
-      <c r="D12" s="113"/>
+      <c r="D12" s="94"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
@@ -1612,9 +1612,9 @@
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="9"/>
       <c r="C13" s="14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
-      <c r="D13" s="113"/>
+      <c r="D13" s="94"/>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
@@ -1641,7 +1641,7 @@
     <row r="16" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B16" s="9"/>
       <c r="C16" s="12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
@@ -1661,7 +1661,7 @@
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="9"/>
       <c r="C18" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" s="43"/>
       <c r="E18" s="10"/>
@@ -1672,7 +1672,7 @@
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="9"/>
       <c r="C19" s="63" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D19" s="43"/>
       <c r="E19" s="10"/>
@@ -1683,7 +1683,7 @@
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="9"/>
       <c r="C20" s="63" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D20" s="43"/>
       <c r="E20" s="10"/>
@@ -1712,7 +1712,7 @@
     <row r="23" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B23" s="9"/>
       <c r="C23" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D23" s="15"/>
       <c r="E23" s="10"/>
@@ -1731,11 +1731,11 @@
     </row>
     <row r="25" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="9"/>
-      <c r="C25" s="94"/>
-      <c r="D25" s="95"/>
-      <c r="E25" s="95"/>
-      <c r="F25" s="95"/>
-      <c r="G25" s="96"/>
+      <c r="C25" s="95"/>
+      <c r="D25" s="96"/>
+      <c r="E25" s="96"/>
+      <c r="F25" s="96"/>
+      <c r="G25" s="97"/>
       <c r="H25" s="11"/>
     </row>
     <row r="26" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1752,7 +1752,7 @@
       <c r="D27" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Uh8eaw84EEq6mFRHbJLoL3pSInIQoQU8s6GT3Rq4fj4XtJ90mXirSYtIO9ayDOGExvxWZVfdxeQJ4y1Y0zneEQ==" saltValue="d3i4v+nfBuvA8m9T68WTag==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="tLikXNO13q+QQ3DUav2d2M9Nw1JbdFBHz+sazVnGKsX/ocRaSeX4XeCSQIz2SzujjdWd89xK5XBIUVzfMwmTkg==" saltValue="bUQtznwB83SDRZz0sUJmvw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="4">
     <mergeCell ref="C25:G25"/>
     <mergeCell ref="C8:D8"/>
@@ -1777,7 +1777,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C098252-FABC-4161-882E-794F98E79BC6}">
   <dimension ref="A1:DN1048576"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
@@ -1819,24 +1819,24 @@
       <c r="Q1" s="41"/>
     </row>
     <row r="2" spans="2:118" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="98" t="s">
-        <v>34</v>
+      <c r="B2" s="99" t="s">
+        <v>33</v>
       </c>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
-      <c r="N2" s="99"/>
-      <c r="O2" s="99"/>
-      <c r="P2" s="99"/>
-      <c r="Q2" s="99"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="100"/>
+      <c r="P2" s="100"/>
+      <c r="Q2" s="100"/>
       <c r="R2" s="38"/>
       <c r="S2" s="38"/>
       <c r="T2" s="38"/>
@@ -1940,153 +1940,153 @@
       <c r="DN2" s="40"/>
     </row>
     <row r="3" spans="2:118" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="101"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="102"/>
-      <c r="K3" s="102"/>
-      <c r="L3" s="102"/>
-      <c r="M3" s="102"/>
-      <c r="N3" s="102"/>
-      <c r="O3" s="102"/>
-      <c r="P3" s="102"/>
-      <c r="Q3" s="102"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="103"/>
+      <c r="K3" s="103"/>
+      <c r="L3" s="103"/>
+      <c r="M3" s="103"/>
+      <c r="N3" s="103"/>
+      <c r="O3" s="103"/>
+      <c r="P3" s="103"/>
+      <c r="Q3" s="103"/>
       <c r="R3" s="39"/>
-      <c r="S3" s="104" t="s">
-        <v>25</v>
+      <c r="S3" s="105" t="s">
+        <v>24</v>
       </c>
-      <c r="T3" s="105"/>
-      <c r="U3" s="105"/>
-      <c r="V3" s="105"/>
-      <c r="W3" s="105"/>
-      <c r="X3" s="105"/>
-      <c r="Y3" s="105"/>
-      <c r="Z3" s="105"/>
-      <c r="AA3" s="105"/>
-      <c r="AB3" s="105"/>
-      <c r="AC3" s="105"/>
-      <c r="AD3" s="105"/>
-      <c r="AE3" s="105"/>
-      <c r="AF3" s="105"/>
-      <c r="AG3" s="105"/>
-      <c r="AH3" s="105"/>
-      <c r="AI3" s="105"/>
-      <c r="AJ3" s="105"/>
-      <c r="AK3" s="105"/>
-      <c r="AL3" s="105"/>
-      <c r="AM3" s="105"/>
-      <c r="AN3" s="105"/>
-      <c r="AO3" s="105"/>
-      <c r="AP3" s="105"/>
-      <c r="AQ3" s="105"/>
-      <c r="AR3" s="105"/>
-      <c r="AS3" s="105"/>
-      <c r="AT3" s="105"/>
-      <c r="AU3" s="105"/>
-      <c r="AV3" s="105"/>
-      <c r="AW3" s="105"/>
-      <c r="AX3" s="105"/>
-      <c r="AY3" s="105"/>
-      <c r="AZ3" s="105"/>
-      <c r="BA3" s="105"/>
-      <c r="BB3" s="105"/>
-      <c r="BC3" s="105"/>
-      <c r="BD3" s="105"/>
-      <c r="BE3" s="105"/>
-      <c r="BF3" s="105"/>
-      <c r="BG3" s="105"/>
-      <c r="BH3" s="105"/>
-      <c r="BI3" s="105"/>
-      <c r="BJ3" s="105"/>
-      <c r="BK3" s="105"/>
-      <c r="BL3" s="105"/>
-      <c r="BM3" s="105"/>
-      <c r="BN3" s="105"/>
-      <c r="BO3" s="105"/>
-      <c r="BP3" s="105"/>
-      <c r="BQ3" s="105"/>
-      <c r="BR3" s="105"/>
-      <c r="BS3" s="105"/>
-      <c r="BT3" s="105"/>
-      <c r="BU3" s="105"/>
-      <c r="BV3" s="105"/>
-      <c r="BW3" s="105"/>
-      <c r="BX3" s="105"/>
-      <c r="BY3" s="105"/>
-      <c r="BZ3" s="105"/>
-      <c r="CA3" s="105"/>
-      <c r="CB3" s="105"/>
-      <c r="CC3" s="105"/>
-      <c r="CD3" s="105"/>
-      <c r="CE3" s="105"/>
-      <c r="CF3" s="105"/>
-      <c r="CG3" s="105"/>
-      <c r="CH3" s="105"/>
-      <c r="CI3" s="105"/>
-      <c r="CJ3" s="105"/>
-      <c r="CK3" s="105"/>
-      <c r="CL3" s="105"/>
-      <c r="CM3" s="105"/>
-      <c r="CN3" s="105"/>
-      <c r="CO3" s="105"/>
-      <c r="CP3" s="105"/>
-      <c r="CQ3" s="105"/>
-      <c r="CR3" s="105"/>
-      <c r="CS3" s="105"/>
-      <c r="CT3" s="105"/>
-      <c r="CU3" s="105"/>
-      <c r="CV3" s="105"/>
-      <c r="CW3" s="105"/>
-      <c r="CX3" s="105"/>
-      <c r="CY3" s="105"/>
-      <c r="CZ3" s="105"/>
-      <c r="DA3" s="105"/>
-      <c r="DB3" s="105"/>
-      <c r="DC3" s="105"/>
-      <c r="DD3" s="105"/>
-      <c r="DE3" s="105"/>
-      <c r="DF3" s="105"/>
-      <c r="DG3" s="105"/>
-      <c r="DH3" s="105"/>
-      <c r="DI3" s="105"/>
-      <c r="DJ3" s="105"/>
-      <c r="DK3" s="105"/>
-      <c r="DL3" s="105"/>
-      <c r="DM3" s="105"/>
-      <c r="DN3" s="106"/>
+      <c r="T3" s="106"/>
+      <c r="U3" s="106"/>
+      <c r="V3" s="106"/>
+      <c r="W3" s="106"/>
+      <c r="X3" s="106"/>
+      <c r="Y3" s="106"/>
+      <c r="Z3" s="106"/>
+      <c r="AA3" s="106"/>
+      <c r="AB3" s="106"/>
+      <c r="AC3" s="106"/>
+      <c r="AD3" s="106"/>
+      <c r="AE3" s="106"/>
+      <c r="AF3" s="106"/>
+      <c r="AG3" s="106"/>
+      <c r="AH3" s="106"/>
+      <c r="AI3" s="106"/>
+      <c r="AJ3" s="106"/>
+      <c r="AK3" s="106"/>
+      <c r="AL3" s="106"/>
+      <c r="AM3" s="106"/>
+      <c r="AN3" s="106"/>
+      <c r="AO3" s="106"/>
+      <c r="AP3" s="106"/>
+      <c r="AQ3" s="106"/>
+      <c r="AR3" s="106"/>
+      <c r="AS3" s="106"/>
+      <c r="AT3" s="106"/>
+      <c r="AU3" s="106"/>
+      <c r="AV3" s="106"/>
+      <c r="AW3" s="106"/>
+      <c r="AX3" s="106"/>
+      <c r="AY3" s="106"/>
+      <c r="AZ3" s="106"/>
+      <c r="BA3" s="106"/>
+      <c r="BB3" s="106"/>
+      <c r="BC3" s="106"/>
+      <c r="BD3" s="106"/>
+      <c r="BE3" s="106"/>
+      <c r="BF3" s="106"/>
+      <c r="BG3" s="106"/>
+      <c r="BH3" s="106"/>
+      <c r="BI3" s="106"/>
+      <c r="BJ3" s="106"/>
+      <c r="BK3" s="106"/>
+      <c r="BL3" s="106"/>
+      <c r="BM3" s="106"/>
+      <c r="BN3" s="106"/>
+      <c r="BO3" s="106"/>
+      <c r="BP3" s="106"/>
+      <c r="BQ3" s="106"/>
+      <c r="BR3" s="106"/>
+      <c r="BS3" s="106"/>
+      <c r="BT3" s="106"/>
+      <c r="BU3" s="106"/>
+      <c r="BV3" s="106"/>
+      <c r="BW3" s="106"/>
+      <c r="BX3" s="106"/>
+      <c r="BY3" s="106"/>
+      <c r="BZ3" s="106"/>
+      <c r="CA3" s="106"/>
+      <c r="CB3" s="106"/>
+      <c r="CC3" s="106"/>
+      <c r="CD3" s="106"/>
+      <c r="CE3" s="106"/>
+      <c r="CF3" s="106"/>
+      <c r="CG3" s="106"/>
+      <c r="CH3" s="106"/>
+      <c r="CI3" s="106"/>
+      <c r="CJ3" s="106"/>
+      <c r="CK3" s="106"/>
+      <c r="CL3" s="106"/>
+      <c r="CM3" s="106"/>
+      <c r="CN3" s="106"/>
+      <c r="CO3" s="106"/>
+      <c r="CP3" s="106"/>
+      <c r="CQ3" s="106"/>
+      <c r="CR3" s="106"/>
+      <c r="CS3" s="106"/>
+      <c r="CT3" s="106"/>
+      <c r="CU3" s="106"/>
+      <c r="CV3" s="106"/>
+      <c r="CW3" s="106"/>
+      <c r="CX3" s="106"/>
+      <c r="CY3" s="106"/>
+      <c r="CZ3" s="106"/>
+      <c r="DA3" s="106"/>
+      <c r="DB3" s="106"/>
+      <c r="DC3" s="106"/>
+      <c r="DD3" s="106"/>
+      <c r="DE3" s="106"/>
+      <c r="DF3" s="106"/>
+      <c r="DG3" s="106"/>
+      <c r="DH3" s="106"/>
+      <c r="DI3" s="106"/>
+      <c r="DJ3" s="106"/>
+      <c r="DK3" s="106"/>
+      <c r="DL3" s="106"/>
+      <c r="DM3" s="106"/>
+      <c r="DN3" s="107"/>
     </row>
     <row r="4" spans="2:118" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="107" t="s">
-        <v>38</v>
+      <c r="B4" s="108" t="s">
+        <v>37</v>
       </c>
-      <c r="C4" s="112"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="107" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="112"/>
-      <c r="G4" s="112"/>
-      <c r="H4" s="112"/>
-      <c r="I4" s="108"/>
-      <c r="J4" s="107" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="108"/>
-      <c r="L4" s="109" t="s">
+      <c r="C4" s="113"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="110"/>
-      <c r="N4" s="110"/>
-      <c r="O4" s="110"/>
-      <c r="P4" s="110"/>
-      <c r="Q4" s="111"/>
+      <c r="F4" s="113"/>
+      <c r="G4" s="113"/>
+      <c r="H4" s="113"/>
+      <c r="I4" s="109"/>
+      <c r="J4" s="108" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="109"/>
+      <c r="L4" s="110" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" s="111"/>
+      <c r="N4" s="111"/>
+      <c r="O4" s="111"/>
+      <c r="P4" s="111"/>
+      <c r="Q4" s="112"/>
       <c r="R4" s="76" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S4" s="25"/>
       <c r="T4" s="26"/>
@@ -2191,55 +2191,55 @@
     </row>
     <row r="5" spans="2:118" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="73" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="74" t="s">
-        <v>5</v>
+      <c r="F5" s="89" t="s">
+        <v>18</v>
       </c>
-      <c r="D5" s="88" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="93" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="89" t="s">
+      <c r="G5" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="75" t="s">
+      <c r="H5" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="75" t="s">
-        <v>21</v>
-      </c>
       <c r="I5" s="70" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J5" s="71" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K5" s="72" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L5" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" s="69" t="s">
+        <v>22</v>
+      </c>
+      <c r="N5" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="69" t="s">
-        <v>23</v>
-      </c>
-      <c r="N5" s="67" t="s">
-        <v>13</v>
-      </c>
       <c r="O5" s="64" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P5" s="66" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q5" s="65" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R5" s="77" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S5" s="28"/>
       <c r="T5" s="29"/>

--- a/form_reporting_templates/Form-3CE.xlsx
+++ b/form_reporting_templates/Form-3CE.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\echassot\Desktop\iotc-reference-forms\form_reporting_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\echassot\Desktop\repositories\data_dissemination\iotc-reference-forms\form_reporting_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69CB5144-E9A3-4F55-9F0E-E6A4D3D513F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FC68722-DBD1-4889-AEDF-1585A921920B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="D/L7RJXD1bM7VSukp9nBPXamnS2mKwuV7VHnNS9bopG+/gy69KSPIxEDp2efAHIwM2oGVTU5uyDQpmk0iVlvLw==" workbookSaltValue="ZXtEfnD7/zBb2FnSisyo4w==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -1469,7 +1469,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC2D41B5-AC8B-4133-9C08-EAF515BF72F5}">
   <dimension ref="B1:H27"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -1777,7 +1777,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C098252-FABC-4161-882E-794F98E79BC6}">
   <dimension ref="A1:DN1048576"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
@@ -12272,7 +12272,7 @@
       <c r="DN1048576" s="80"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="UnqAqxn3Navgtn4/2sh5aSAmfdfNf9BjFtlt5szFArSxzEJIp8RiktfFee1oG69A7MnW07gQ3UqbrvE6zMPmmw==" saltValue="8WMYB6QGPih+HcIEQxWqIA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="awq/zHEQ2lvQfBK14tCt9FcrmGYL1Xl8mXxk9PPwI6yF4prHIBxVlgXO8iuUTUA8jSvAK5IF47askFqige1jqw==" saltValue="I/imK7AusiNOtqAY5X33hA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="6">
     <mergeCell ref="S3:DN3"/>
     <mergeCell ref="J4:K4"/>
@@ -12307,7 +12307,7 @@
     <hyperlink ref="L5" r:id="rId8" location="effortUnits" xr:uid="{54918CF4-B18C-41AB-8A84-5DFB8956302F}"/>
     <hyperlink ref="N5" r:id="rId9" location="effortUnits" xr:uid="{BBFE535B-6BD4-4ED0-A364-BCA2CB5FA9F2}"/>
     <hyperlink ref="P5" r:id="rId10" location="effortUnits" xr:uid="{8E49C3AE-4385-4293-9432-CCAE0BAA4D5D}"/>
-    <hyperlink ref="R4" r:id="rId11" location="species" xr:uid="{8B9FF7CF-5003-45EA-B86B-8B8135E02938}"/>
+    <hyperlink ref="R4" r:id="rId11" location="allSpecies" xr:uid="{8B9FF7CF-5003-45EA-B86B-8B8135E02938}"/>
     <hyperlink ref="I5" r:id="rId12" location="raisings" display="Data raising" xr:uid="{731DC286-6E5E-4BEF-A720-A65ED9B7C74D}"/>
     <hyperlink ref="R5" r:id="rId13" location="catchUnits" xr:uid="{E17AC96F-B121-450F-ADD7-91CBC2C50DA4}"/>
   </hyperlinks>
